--- a/document/Main Page.xlsx
+++ b/document/Main Page.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Traveller" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="66">
   <si>
     <t>LOGO</t>
   </si>
@@ -136,13 +137,13 @@
     <t>Phone Number</t>
   </si>
   <si>
-    <t>Submit</t>
-  </si>
-  <si>
     <t>Newsletter</t>
   </si>
   <si>
     <t>Halaman Vendor Profile</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Tour Travel Name</t>
@@ -155,6 +156,63 @@
   </si>
   <si>
     <t>Twitter</t>
+  </si>
+  <si>
+    <t>Pindah ke halaman baru, lihat sheet traveller</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>My Journey</t>
+  </si>
+  <si>
+    <t>My Itenary</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>My Favourite Tour</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Ask For Itenary</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Make a Itenary</t>
+  </si>
+  <si>
+    <t>Hapus</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Upload</t>
   </si>
 </sst>
 </file>
@@ -344,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -379,6 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,6 +728,53 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="22802850"/>
+          <a:ext cx="0" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -959,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB131"/>
+  <dimension ref="A1:BB134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="AD85" sqref="AD85"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +3499,7 @@
         <v>31</v>
       </c>
       <c r="AC88" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.25">
@@ -4117,7 +4223,7 @@
     <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -4127,7 +4233,9 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="K102" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -4144,7 +4252,9 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="4"/>
       <c r="AC102" s="11"/>
-      <c r="AD102" s="5"/>
+      <c r="AD102" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="5"/>
@@ -4153,7 +4263,9 @@
       <c r="AJ102" s="5"/>
       <c r="AK102" s="5"/>
       <c r="AL102" s="5"/>
-      <c r="AM102" s="5"/>
+      <c r="AM102" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AN102" s="5"/>
       <c r="AO102" s="5"/>
       <c r="AP102" s="5"/>
@@ -4179,15 +4291,15 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
@@ -4198,24 +4310,22 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="4"/>
       <c r="AC103" s="11"/>
-      <c r="AD103" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE103" s="5"/>
-      <c r="AF103" s="5"/>
-      <c r="AG103" s="5"/>
-      <c r="AH103" s="5"/>
-      <c r="AI103" s="5"/>
-      <c r="AJ103" s="5"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="2"/>
+      <c r="AG103" s="2"/>
+      <c r="AH103" s="2"/>
+      <c r="AI103" s="2"/>
+      <c r="AJ103" s="2"/>
       <c r="AK103" s="5"/>
       <c r="AL103" s="5"/>
-      <c r="AM103" s="5"/>
-      <c r="AN103" s="5"/>
-      <c r="AO103" s="5"/>
-      <c r="AP103" s="5"/>
-      <c r="AQ103" s="5"/>
-      <c r="AR103" s="5"/>
-      <c r="AS103" s="5"/>
+      <c r="AM103" s="2"/>
+      <c r="AN103" s="2"/>
+      <c r="AO103" s="2"/>
+      <c r="AP103" s="2"/>
+      <c r="AQ103" s="2"/>
+      <c r="AR103" s="2"/>
+      <c r="AS103" s="2"/>
       <c r="AT103" s="5"/>
       <c r="AU103" s="5"/>
       <c r="AV103" s="5"/>
@@ -4228,19 +4338,19 @@
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="23"/>
-      <c r="N104" s="23"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
@@ -4254,19 +4364,19 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="4"/>
       <c r="AC104" s="11"/>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="2"/>
-      <c r="AF104" s="2"/>
-      <c r="AG104" s="2"/>
-      <c r="AH104" s="2"/>
-      <c r="AI104" s="2"/>
-      <c r="AJ104" s="2"/>
-      <c r="AK104" s="2"/>
-      <c r="AL104" s="2"/>
-      <c r="AM104" s="2"/>
-      <c r="AN104" s="2"/>
-      <c r="AO104" s="2"/>
-      <c r="AP104" s="2"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AG104" s="5"/>
+      <c r="AH104" s="5"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+      <c r="AM104" s="5"/>
+      <c r="AN104" s="5"/>
+      <c r="AO104" s="5"/>
+      <c r="AP104" s="5"/>
       <c r="AQ104" s="5"/>
       <c r="AR104" s="5"/>
       <c r="AS104" s="5"/>
@@ -4282,19 +4392,21 @@
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23"/>
-      <c r="M105" s="23"/>
-      <c r="N105" s="23"/>
+      <c r="B105" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
@@ -4336,19 +4448,19 @@
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
@@ -4363,7 +4475,7 @@
       <c r="Z106" s="4"/>
       <c r="AC106" s="11"/>
       <c r="AD106" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
@@ -4392,21 +4504,19 @@
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
-      <c r="B107" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
@@ -4448,19 +4558,19 @@
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
@@ -4474,19 +4584,19 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="4"/>
       <c r="AC108" s="11"/>
-      <c r="AD108" s="23"/>
-      <c r="AE108" s="23"/>
-      <c r="AF108" s="23"/>
-      <c r="AG108" s="23"/>
-      <c r="AH108" s="23"/>
-      <c r="AI108" s="23"/>
-      <c r="AJ108" s="23"/>
-      <c r="AK108" s="23"/>
-      <c r="AL108" s="23"/>
-      <c r="AM108" s="23"/>
-      <c r="AN108" s="23"/>
-      <c r="AO108" s="23"/>
-      <c r="AP108" s="23"/>
+      <c r="AD108" s="5"/>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="5"/>
+      <c r="AG108" s="5"/>
+      <c r="AH108" s="5"/>
+      <c r="AI108" s="5"/>
+      <c r="AJ108" s="5"/>
+      <c r="AK108" s="5"/>
+      <c r="AL108" s="5"/>
+      <c r="AM108" s="5"/>
+      <c r="AN108" s="5"/>
+      <c r="AO108" s="5"/>
+      <c r="AP108" s="5"/>
       <c r="AQ108" s="5"/>
       <c r="AR108" s="5"/>
       <c r="AS108" s="5"/>
@@ -4528,19 +4638,21 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="4"/>
       <c r="AC109" s="11"/>
-      <c r="AD109" s="23"/>
-      <c r="AE109" s="23"/>
-      <c r="AF109" s="23"/>
-      <c r="AG109" s="23"/>
-      <c r="AH109" s="23"/>
-      <c r="AI109" s="23"/>
-      <c r="AJ109" s="23"/>
-      <c r="AK109" s="23"/>
-      <c r="AL109" s="23"/>
-      <c r="AM109" s="23"/>
-      <c r="AN109" s="23"/>
-      <c r="AO109" s="23"/>
-      <c r="AP109" s="23"/>
+      <c r="AD109" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5"/>
+      <c r="AG109" s="5"/>
+      <c r="AH109" s="5"/>
+      <c r="AI109" s="5"/>
+      <c r="AJ109" s="5"/>
+      <c r="AK109" s="5"/>
+      <c r="AL109" s="5"/>
+      <c r="AM109" s="5"/>
+      <c r="AN109" s="5"/>
+      <c r="AO109" s="5"/>
+      <c r="AP109" s="5"/>
       <c r="AQ109" s="5"/>
       <c r="AR109" s="5"/>
       <c r="AS109" s="5"/>
@@ -4556,17 +4668,15 @@
     </row>
     <row r="110" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
-      <c r="B110" s="30" t="s">
-        <v>37</v>
+      <c r="B110" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
-      <c r="H110" s="30" t="s">
-        <v>12</v>
-      </c>
+      <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -4586,19 +4696,19 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="4"/>
       <c r="AC110" s="11"/>
-      <c r="AD110" s="5"/>
-      <c r="AE110" s="5"/>
-      <c r="AF110" s="5"/>
-      <c r="AG110" s="5"/>
-      <c r="AH110" s="5"/>
-      <c r="AI110" s="5"/>
-      <c r="AJ110" s="5"/>
-      <c r="AK110" s="5"/>
-      <c r="AL110" s="5"/>
-      <c r="AM110" s="5"/>
-      <c r="AN110" s="5"/>
-      <c r="AO110" s="5"/>
-      <c r="AP110" s="5"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+      <c r="AF110" s="2"/>
+      <c r="AG110" s="2"/>
+      <c r="AH110" s="2"/>
+      <c r="AI110" s="2"/>
+      <c r="AJ110" s="2"/>
+      <c r="AK110" s="2"/>
+      <c r="AL110" s="2"/>
+      <c r="AM110" s="2"/>
+      <c r="AN110" s="2"/>
+      <c r="AO110" s="2"/>
+      <c r="AP110" s="2"/>
       <c r="AQ110" s="5"/>
       <c r="AR110" s="5"/>
       <c r="AS110" s="5"/>
@@ -4614,20 +4724,16 @@
     </row>
     <row r="111" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="5"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
       <c r="G111" s="5"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -4644,21 +4750,19 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="4"/>
       <c r="AC111" s="11"/>
-      <c r="AD111" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE111" s="5"/>
-      <c r="AF111" s="5"/>
-      <c r="AG111" s="5"/>
-      <c r="AH111" s="5"/>
-      <c r="AI111" s="5"/>
-      <c r="AJ111" s="5"/>
-      <c r="AK111" s="5"/>
-      <c r="AL111" s="5"/>
-      <c r="AM111" s="5"/>
-      <c r="AN111" s="5"/>
-      <c r="AO111" s="5"/>
-      <c r="AP111" s="5"/>
+      <c r="AD111" s="23"/>
+      <c r="AE111" s="23"/>
+      <c r="AF111" s="23"/>
+      <c r="AG111" s="23"/>
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="23"/>
+      <c r="AJ111" s="23"/>
+      <c r="AK111" s="23"/>
+      <c r="AL111" s="23"/>
+      <c r="AM111" s="23"/>
+      <c r="AN111" s="23"/>
+      <c r="AO111" s="23"/>
+      <c r="AP111" s="23"/>
       <c r="AQ111" s="5"/>
       <c r="AR111" s="5"/>
       <c r="AS111" s="5"/>
@@ -4700,19 +4804,19 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="4"/>
       <c r="AC112" s="11"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="2"/>
-      <c r="AF112" s="2"/>
-      <c r="AG112" s="2"/>
-      <c r="AH112" s="2"/>
-      <c r="AI112" s="5"/>
-      <c r="AJ112" s="5"/>
-      <c r="AK112" s="5"/>
-      <c r="AL112" s="5"/>
-      <c r="AM112" s="5"/>
-      <c r="AN112" s="5"/>
-      <c r="AO112" s="5"/>
-      <c r="AP112" s="5"/>
+      <c r="AD112" s="23"/>
+      <c r="AE112" s="23"/>
+      <c r="AF112" s="23"/>
+      <c r="AG112" s="23"/>
+      <c r="AH112" s="23"/>
+      <c r="AI112" s="23"/>
+      <c r="AJ112" s="23"/>
+      <c r="AK112" s="23"/>
+      <c r="AL112" s="23"/>
+      <c r="AM112" s="23"/>
+      <c r="AN112" s="23"/>
+      <c r="AO112" s="23"/>
+      <c r="AP112" s="23"/>
       <c r="AQ112" s="5"/>
       <c r="AR112" s="5"/>
       <c r="AS112" s="5"/>
@@ -4728,15 +4832,17 @@
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
-      <c r="B113" s="5" t="s">
-        <v>39</v>
+      <c r="B113" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+      <c r="H113" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -4784,16 +4890,20 @@
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -4810,17 +4920,15 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="4"/>
       <c r="AC114" s="11"/>
-      <c r="AD114" s="30" t="s">
-        <v>37</v>
+      <c r="AD114" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
       <c r="AI114" s="5"/>
-      <c r="AJ114" s="30" t="s">
-        <v>12</v>
-      </c>
+      <c r="AJ114" s="5"/>
       <c r="AK114" s="5"/>
       <c r="AL114" s="5"/>
       <c r="AM114" s="5"/>
@@ -4868,20 +4976,16 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="4"/>
       <c r="AC115" s="11"/>
-      <c r="AD115" s="22"/>
-      <c r="AE115" s="23"/>
-      <c r="AF115" s="23"/>
-      <c r="AG115" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH115" s="5"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+      <c r="AH115" s="2"/>
       <c r="AI115" s="5"/>
-      <c r="AJ115" s="22"/>
-      <c r="AK115" s="23"/>
-      <c r="AL115" s="23"/>
-      <c r="AM115" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="AJ115" s="5"/>
+      <c r="AK115" s="5"/>
+      <c r="AL115" s="5"/>
+      <c r="AM115" s="5"/>
       <c r="AN115" s="5"/>
       <c r="AO115" s="5"/>
       <c r="AP115" s="5"/>
@@ -4900,12 +5004,12 @@
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -4956,12 +5060,12 @@
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
@@ -4982,15 +5086,17 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="4"/>
       <c r="AC117" s="11"/>
-      <c r="AD117" s="5" t="s">
-        <v>39</v>
+      <c r="AD117" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
       <c r="AG117" s="5"/>
       <c r="AH117" s="5"/>
       <c r="AI117" s="5"/>
-      <c r="AJ117" s="5"/>
+      <c r="AJ117" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="AK117" s="5"/>
       <c r="AL117" s="5"/>
       <c r="AM117" s="5"/>
@@ -5015,12 +5121,10 @@
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G118" s="23"/>
-      <c r="H118" s="24"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -5040,16 +5144,20 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="4"/>
       <c r="AC118" s="11"/>
-      <c r="AD118" s="2"/>
-      <c r="AE118" s="2"/>
-      <c r="AF118" s="2"/>
-      <c r="AG118" s="2"/>
-      <c r="AH118" s="2"/>
-      <c r="AI118" s="2"/>
-      <c r="AJ118" s="5"/>
-      <c r="AK118" s="5"/>
-      <c r="AL118" s="5"/>
-      <c r="AM118" s="5"/>
+      <c r="AD118" s="22"/>
+      <c r="AE118" s="23"/>
+      <c r="AF118" s="23"/>
+      <c r="AG118" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH118" s="5"/>
+      <c r="AI118" s="5"/>
+      <c r="AJ118" s="22"/>
+      <c r="AK118" s="23"/>
+      <c r="AL118" s="23"/>
+      <c r="AM118" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="AN118" s="5"/>
       <c r="AO118" s="5"/>
       <c r="AP118" s="5"/>
@@ -5070,8 +5178,10 @@
       <c r="A119" s="11"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -5148,7 +5258,9 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="4"/>
       <c r="AC120" s="11"/>
-      <c r="AD120" s="5"/>
+      <c r="AD120" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
       <c r="AG120" s="5"/>
@@ -5175,43 +5287,43 @@
       <c r="BB120" s="4"/>
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="1"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F121" s="33"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="4"/>
       <c r="AC121" s="11"/>
-      <c r="AD121" s="28"/>
-      <c r="AE121" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
       <c r="AG121" s="2"/>
       <c r="AH121" s="2"/>
       <c r="AI121" s="2"/>
-      <c r="AJ121" s="2"/>
-      <c r="AK121" s="2"/>
+      <c r="AJ121" s="5"/>
+      <c r="AK121" s="5"/>
       <c r="AL121" s="5"/>
       <c r="AM121" s="5"/>
       <c r="AN121" s="5"/>
@@ -5231,6 +5343,32 @@
       <c r="BB121" s="4"/>
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="4"/>
       <c r="AC122" s="11"/>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
@@ -5259,17 +5397,41 @@
       <c r="BB122" s="4"/>
     </row>
     <row r="123" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="4"/>
       <c r="AC123" s="11"/>
-      <c r="AD123" s="28"/>
-      <c r="AE123" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF123" s="2"/>
-      <c r="AG123" s="2"/>
-      <c r="AH123" s="2"/>
-      <c r="AI123" s="2"/>
-      <c r="AJ123" s="2"/>
-      <c r="AK123" s="2"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="5"/>
+      <c r="AF123" s="5"/>
+      <c r="AG123" s="5"/>
+      <c r="AH123" s="5"/>
+      <c r="AI123" s="5"/>
+      <c r="AJ123" s="5"/>
+      <c r="AK123" s="5"/>
       <c r="AL123" s="5"/>
       <c r="AM123" s="5"/>
       <c r="AN123" s="5"/>
@@ -5289,15 +5451,43 @@
       <c r="BB123" s="4"/>
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="1"/>
       <c r="AC124" s="11"/>
-      <c r="AD124" s="5"/>
-      <c r="AE124" s="5"/>
-      <c r="AF124" s="5"/>
-      <c r="AG124" s="5"/>
-      <c r="AH124" s="5"/>
-      <c r="AI124" s="5"/>
-      <c r="AJ124" s="5"/>
-      <c r="AK124" s="5"/>
+      <c r="AD124" s="28"/>
+      <c r="AE124" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF124" s="2"/>
+      <c r="AG124" s="2"/>
+      <c r="AH124" s="2"/>
+      <c r="AI124" s="2"/>
+      <c r="AJ124" s="2"/>
+      <c r="AK124" s="2"/>
       <c r="AL124" s="5"/>
       <c r="AM124" s="5"/>
       <c r="AN124" s="5"/>
@@ -5318,16 +5508,14 @@
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AC125" s="11"/>
-      <c r="AD125" s="28"/>
-      <c r="AE125" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF125" s="2"/>
-      <c r="AG125" s="2"/>
-      <c r="AH125" s="2"/>
-      <c r="AI125" s="2"/>
-      <c r="AJ125" s="2"/>
-      <c r="AK125" s="2"/>
+      <c r="AD125" s="5"/>
+      <c r="AE125" s="5"/>
+      <c r="AF125" s="5"/>
+      <c r="AG125" s="5"/>
+      <c r="AH125" s="5"/>
+      <c r="AI125" s="5"/>
+      <c r="AJ125" s="5"/>
+      <c r="AK125" s="5"/>
       <c r="AL125" s="5"/>
       <c r="AM125" s="5"/>
       <c r="AN125" s="5"/>
@@ -5348,14 +5536,16 @@
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AC126" s="11"/>
-      <c r="AD126" s="5"/>
-      <c r="AE126" s="5"/>
-      <c r="AF126" s="5"/>
-      <c r="AG126" s="5"/>
-      <c r="AH126" s="5"/>
-      <c r="AI126" s="5"/>
-      <c r="AJ126" s="5"/>
-      <c r="AK126" s="5"/>
+      <c r="AD126" s="28"/>
+      <c r="AE126" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF126" s="2"/>
+      <c r="AG126" s="2"/>
+      <c r="AH126" s="2"/>
+      <c r="AI126" s="2"/>
+      <c r="AJ126" s="2"/>
+      <c r="AK126" s="2"/>
       <c r="AL126" s="5"/>
       <c r="AM126" s="5"/>
       <c r="AN126" s="5"/>
@@ -5376,16 +5566,14 @@
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AC127" s="11"/>
-      <c r="AD127" s="28"/>
-      <c r="AE127" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF127" s="2"/>
-      <c r="AG127" s="2"/>
-      <c r="AH127" s="2"/>
-      <c r="AI127" s="2"/>
-      <c r="AJ127" s="2"/>
-      <c r="AK127" s="2"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+      <c r="AF127" s="5"/>
+      <c r="AG127" s="5"/>
+      <c r="AH127" s="5"/>
+      <c r="AI127" s="5"/>
+      <c r="AJ127" s="5"/>
+      <c r="AK127" s="5"/>
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
       <c r="AN127" s="5"/>
@@ -5405,15 +5593,20 @@
       <c r="BB127" s="4"/>
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>47</v>
+      </c>
       <c r="AC128" s="11"/>
-      <c r="AD128" s="5"/>
-      <c r="AE128" s="5"/>
-      <c r="AF128" s="5"/>
-      <c r="AG128" s="5"/>
-      <c r="AH128" s="5"/>
-      <c r="AI128" s="5"/>
-      <c r="AJ128" s="5"/>
-      <c r="AK128" s="5"/>
+      <c r="AD128" s="28"/>
+      <c r="AE128" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF128" s="2"/>
+      <c r="AG128" s="2"/>
+      <c r="AH128" s="2"/>
+      <c r="AI128" s="2"/>
+      <c r="AJ128" s="2"/>
+      <c r="AK128" s="2"/>
       <c r="AL128" s="5"/>
       <c r="AM128" s="5"/>
       <c r="AN128" s="5"/>
@@ -5462,17 +5655,17 @@
     </row>
     <row r="130" spans="29:54" x14ac:dyDescent="0.25">
       <c r="AC130" s="11"/>
-      <c r="AD130" s="5"/>
-      <c r="AE130" s="5"/>
-      <c r="AF130" s="5"/>
-      <c r="AG130" s="5"/>
-      <c r="AH130" s="5"/>
-      <c r="AI130" s="22"/>
-      <c r="AJ130" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK130" s="23"/>
-      <c r="AL130" s="24"/>
+      <c r="AD130" s="28"/>
+      <c r="AE130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF130" s="2"/>
+      <c r="AG130" s="2"/>
+      <c r="AH130" s="2"/>
+      <c r="AI130" s="2"/>
+      <c r="AJ130" s="2"/>
+      <c r="AK130" s="2"/>
+      <c r="AL130" s="5"/>
       <c r="AM130" s="5"/>
       <c r="AN130" s="5"/>
       <c r="AO130" s="5"/>
@@ -5491,36 +5684,5069 @@
       <c r="BB130" s="4"/>
     </row>
     <row r="131" spans="29:54" x14ac:dyDescent="0.25">
-      <c r="AC131" s="3"/>
-      <c r="AD131" s="2"/>
-      <c r="AE131" s="2"/>
-      <c r="AF131" s="2"/>
-      <c r="AG131" s="2"/>
-      <c r="AH131" s="2"/>
-      <c r="AI131" s="2"/>
-      <c r="AJ131" s="2"/>
-      <c r="AK131" s="2"/>
-      <c r="AL131" s="2"/>
-      <c r="AM131" s="2"/>
-      <c r="AN131" s="2"/>
-      <c r="AO131" s="2"/>
-      <c r="AP131" s="2"/>
-      <c r="AQ131" s="2"/>
-      <c r="AR131" s="2"/>
-      <c r="AS131" s="2"/>
-      <c r="AT131" s="2"/>
-      <c r="AU131" s="2"/>
-      <c r="AV131" s="2"/>
-      <c r="AW131" s="2"/>
-      <c r="AX131" s="2"/>
-      <c r="AY131" s="2"/>
-      <c r="AZ131" s="2"/>
-      <c r="BA131" s="2"/>
-      <c r="BB131" s="1"/>
+      <c r="AC131" s="11"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="5"/>
+      <c r="AG131" s="5"/>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+      <c r="AJ131" s="5"/>
+      <c r="AK131" s="5"/>
+      <c r="AL131" s="5"/>
+      <c r="AM131" s="5"/>
+      <c r="AN131" s="5"/>
+      <c r="AO131" s="5"/>
+      <c r="AP131" s="5"/>
+      <c r="AQ131" s="5"/>
+      <c r="AR131" s="5"/>
+      <c r="AS131" s="5"/>
+      <c r="AT131" s="5"/>
+      <c r="AU131" s="5"/>
+      <c r="AV131" s="5"/>
+      <c r="AW131" s="5"/>
+      <c r="AX131" s="5"/>
+      <c r="AY131" s="5"/>
+      <c r="AZ131" s="5"/>
+      <c r="BA131" s="5"/>
+      <c r="BB131" s="4"/>
+    </row>
+    <row r="132" spans="29:54" x14ac:dyDescent="0.25">
+      <c r="AC132" s="11"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="5"/>
+      <c r="AF132" s="5"/>
+      <c r="AG132" s="5"/>
+      <c r="AH132" s="5"/>
+      <c r="AI132" s="5"/>
+      <c r="AJ132" s="5"/>
+      <c r="AK132" s="5"/>
+      <c r="AL132" s="5"/>
+      <c r="AM132" s="5"/>
+      <c r="AN132" s="5"/>
+      <c r="AO132" s="5"/>
+      <c r="AP132" s="5"/>
+      <c r="AQ132" s="5"/>
+      <c r="AR132" s="5"/>
+      <c r="AS132" s="5"/>
+      <c r="AT132" s="5"/>
+      <c r="AU132" s="5"/>
+      <c r="AV132" s="5"/>
+      <c r="AW132" s="5"/>
+      <c r="AX132" s="5"/>
+      <c r="AY132" s="5"/>
+      <c r="AZ132" s="5"/>
+      <c r="BA132" s="5"/>
+      <c r="BB132" s="4"/>
+    </row>
+    <row r="133" spans="29:54" x14ac:dyDescent="0.25">
+      <c r="AC133" s="11"/>
+      <c r="AD133" s="5"/>
+      <c r="AE133" s="5"/>
+      <c r="AF133" s="5"/>
+      <c r="AG133" s="5"/>
+      <c r="AH133" s="5"/>
+      <c r="AI133" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ133" s="33"/>
+      <c r="AK133" s="23"/>
+      <c r="AL133" s="24"/>
+      <c r="AM133" s="5"/>
+      <c r="AN133" s="5"/>
+      <c r="AO133" s="5"/>
+      <c r="AP133" s="5"/>
+      <c r="AQ133" s="5"/>
+      <c r="AR133" s="5"/>
+      <c r="AS133" s="5"/>
+      <c r="AT133" s="5"/>
+      <c r="AU133" s="5"/>
+      <c r="AV133" s="5"/>
+      <c r="AW133" s="5"/>
+      <c r="AX133" s="5"/>
+      <c r="AY133" s="5"/>
+      <c r="AZ133" s="5"/>
+      <c r="BA133" s="5"/>
+      <c r="BB133" s="4"/>
+    </row>
+    <row r="134" spans="29:54" x14ac:dyDescent="0.25">
+      <c r="AC134" s="3"/>
+      <c r="AD134" s="2"/>
+      <c r="AE134" s="2"/>
+      <c r="AF134" s="2"/>
+      <c r="AG134" s="2"/>
+      <c r="AH134" s="2"/>
+      <c r="AI134" s="2"/>
+      <c r="AJ134" s="2"/>
+      <c r="AK134" s="2"/>
+      <c r="AL134" s="2"/>
+      <c r="AM134" s="2"/>
+      <c r="AN134" s="2"/>
+      <c r="AO134" s="2"/>
+      <c r="AP134" s="2"/>
+      <c r="AQ134" s="2"/>
+      <c r="AR134" s="2"/>
+      <c r="AS134" s="2"/>
+      <c r="AT134" s="2"/>
+      <c r="AU134" s="2"/>
+      <c r="AV134" s="2"/>
+      <c r="AW134" s="2"/>
+      <c r="AX134" s="2"/>
+      <c r="AY134" s="2"/>
+      <c r="AZ134" s="2"/>
+      <c r="BA134" s="2"/>
+      <c r="BB134" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="Q154" sqref="Q154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="7"/>
+    </row>
+    <row r="2" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="24"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="5"/>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="S14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="34"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="11"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="4"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="4"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="4"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="4"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G25" s="11"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="4"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G26" s="11"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="4"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G27" s="11"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="4"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="4"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="4"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="4"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G31" s="11"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="4"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G32" s="11"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="4"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="4"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="4"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G35" s="11"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="4"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G36" s="11"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="4"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G37" s="11"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="4"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="4"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="4"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G40" s="11"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="4"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G41" s="11"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="4"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G42" s="11"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="4"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G43" s="11"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="4"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="1"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="7"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="1"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="24"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="4"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="4"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="4"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="4"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="4"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="4"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="4"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="4"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="4"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="4"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="4"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="4"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="4"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="4"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="4"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="4"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="4"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="4"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="4"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="4"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="4"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="4"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="4"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="4"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="4"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="4"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="4"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="4"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="4"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="4"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="4"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="4"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="4"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="4"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="4"/>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="4"/>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="4"/>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="4"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="4"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="4"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="4"/>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="1"/>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="23"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="23"/>
+      <c r="U97" s="23"/>
+      <c r="V97" s="23"/>
+      <c r="W97" s="23"/>
+      <c r="X97" s="23"/>
+      <c r="Y97" s="23"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="24"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+      <c r="AB98" s="8"/>
+      <c r="AC98" s="8"/>
+      <c r="AD98" s="7"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="4"/>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="23"/>
+      <c r="T100" s="23"/>
+      <c r="U100" s="23"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="4"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="4"/>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="4"/>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="4"/>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="4"/>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="4"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="4"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="4"/>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="4"/>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="1"/>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A112" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="23"/>
+      <c r="P112" s="23"/>
+      <c r="Q112" s="23"/>
+      <c r="R112" s="23"/>
+      <c r="S112" s="23"/>
+      <c r="T112" s="23"/>
+      <c r="U112" s="23"/>
+      <c r="V112" s="23"/>
+      <c r="W112" s="23"/>
+      <c r="X112" s="23"/>
+      <c r="Y112" s="23"/>
+      <c r="Z112" s="23"/>
+      <c r="AA112" s="23"/>
+      <c r="AB112" s="23"/>
+      <c r="AC112" s="23"/>
+      <c r="AD112" s="24"/>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="4"/>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8"/>
+      <c r="AB114" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="4"/>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="4"/>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="5"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="11"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="4"/>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="11"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="4"/>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="4"/>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="11"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="4"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="4"/>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="4"/>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="11"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="4"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="4"/>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="4"/>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="11"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="4"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="4"/>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="11"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="1"/>
+      <c r="AC124" s="5"/>
+      <c r="AD124" s="4"/>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="5"/>
+      <c r="X125" s="5"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+      <c r="AA125" s="5"/>
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="4"/>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="4"/>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A127" s="9"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="8"/>
+      <c r="Z127" s="8"/>
+      <c r="AA127" s="8"/>
+      <c r="AB127" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="4"/>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="11"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="4"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="4"/>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="11"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="4"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="4"/>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="5"/>
+      <c r="T130" s="5"/>
+      <c r="U130" s="11"/>
+      <c r="V130" s="5"/>
+      <c r="W130" s="5"/>
+      <c r="X130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y130" s="5"/>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="4"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="4"/>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="11"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="4"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="4"/>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="5"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="5"/>
+      <c r="T132" s="5"/>
+      <c r="U132" s="11"/>
+      <c r="V132" s="5"/>
+      <c r="W132" s="5"/>
+      <c r="X132" s="5"/>
+      <c r="Y132" s="5"/>
+      <c r="Z132" s="5"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="4"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="4"/>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="2"/>
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="2"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="5"/>
+      <c r="AD133" s="4"/>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="4"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="11"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="4"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="4"/>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+      <c r="Y135" s="5"/>
+      <c r="Z135" s="5"/>
+      <c r="AA135" s="5"/>
+      <c r="AB135" s="4"/>
+      <c r="AC135" s="5"/>
+      <c r="AD135" s="4"/>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="11"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="4"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="4"/>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="4"/>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="T138" s="5"/>
+      <c r="U138" s="5"/>
+      <c r="V138" s="5"/>
+      <c r="W138" s="5"/>
+      <c r="X138" s="5"/>
+      <c r="Y138" s="5"/>
+      <c r="Z138" s="5"/>
+      <c r="AA138" s="5"/>
+      <c r="AB138" s="5"/>
+      <c r="AC138" s="5"/>
+      <c r="AD138" s="4"/>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+      <c r="W139" s="5"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="4"/>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A140" s="9"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S140" s="5"/>
+      <c r="T140" s="5"/>
+      <c r="U140" s="9"/>
+      <c r="V140" s="8"/>
+      <c r="W140" s="8"/>
+      <c r="X140" s="8"/>
+      <c r="Y140" s="8"/>
+      <c r="Z140" s="8"/>
+      <c r="AA140" s="8"/>
+      <c r="AB140" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC140" s="5"/>
+      <c r="AD140" s="4"/>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="11"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="4"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="4"/>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="11"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+      <c r="Z142" s="5"/>
+      <c r="AA142" s="5"/>
+      <c r="AB142" s="4"/>
+      <c r="AC142" s="5"/>
+      <c r="AD142" s="4"/>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="11"/>
+      <c r="V143" s="5"/>
+      <c r="W143" s="5"/>
+      <c r="X143" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y143" s="5"/>
+      <c r="Z143" s="5"/>
+      <c r="AA143" s="5"/>
+      <c r="AB143" s="4"/>
+      <c r="AC143" s="5"/>
+      <c r="AD143" s="4"/>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="11"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="4"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="4"/>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="11"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="4"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="4"/>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
+      <c r="AB146" s="1"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="4"/>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="11"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="4"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="4"/>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="4"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="4"/>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="11"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="4"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="4"/>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="2"/>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
+      <c r="Z150" s="2"/>
+      <c r="AA150" s="2"/>
+      <c r="AB150" s="1"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="4"/>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="4"/>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="4"/>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K153" s="24"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="5"/>
+      <c r="W153" s="5"/>
+      <c r="X153" s="5"/>
+      <c r="Y153" s="5"/>
+      <c r="Z153" s="5"/>
+      <c r="AA153" s="5"/>
+      <c r="AB153" s="5"/>
+      <c r="AC153" s="5"/>
+      <c r="AD153" s="4"/>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K154" s="24"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="5"/>
+      <c r="W154" s="5"/>
+      <c r="X154" s="5"/>
+      <c r="Y154" s="5"/>
+      <c r="Z154" s="5"/>
+      <c r="AA154" s="5"/>
+      <c r="AB154" s="5"/>
+      <c r="AC154" s="5"/>
+      <c r="AD154" s="4"/>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K155" s="24"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="5"/>
+      <c r="W155" s="5"/>
+      <c r="X155" s="5"/>
+      <c r="Y155" s="5"/>
+      <c r="Z155" s="5"/>
+      <c r="AA155" s="5"/>
+      <c r="AB155" s="5"/>
+      <c r="AC155" s="5"/>
+      <c r="AD155" s="4"/>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="5"/>
+      <c r="W156" s="5"/>
+      <c r="X156" s="5"/>
+      <c r="Y156" s="5"/>
+      <c r="Z156" s="5"/>
+      <c r="AA156" s="5"/>
+      <c r="AB156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="4"/>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" s="24"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="5"/>
+      <c r="W157" s="5"/>
+      <c r="X157" s="5"/>
+      <c r="Y157" s="5"/>
+      <c r="Z157" s="5"/>
+      <c r="AA157" s="5"/>
+      <c r="AB157" s="5"/>
+      <c r="AC157" s="5"/>
+      <c r="AD157" s="4"/>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="2"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="2"/>
+      <c r="V158" s="2"/>
+      <c r="W158" s="2"/>
+      <c r="X158" s="2"/>
+      <c r="Y158" s="2"/>
+      <c r="Z158" s="2"/>
+      <c r="AA158" s="2"/>
+      <c r="AB158" s="2"/>
+      <c r="AC158" s="2"/>
+      <c r="AD158" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/Main Page.xlsx
+++ b/document/Main Page.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="1" r:id="rId1"/>
     <sheet name="Traveller" sheetId="2" r:id="rId2"/>
+    <sheet name="Tour" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="77">
   <si>
     <t>LOGO</t>
   </si>
@@ -214,6 +215,39 @@
   <si>
     <t>Upload</t>
   </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Make Package</t>
+  </si>
+  <si>
+    <t>Create Itenary</t>
+  </si>
+  <si>
+    <t>Valuta</t>
+  </si>
+  <si>
+    <t>My Review</t>
+  </si>
+  <si>
+    <t>My Album</t>
+  </si>
+  <si>
+    <t>My Photo Album</t>
+  </si>
 </sst>
 </file>
 
@@ -402,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -438,6 +472,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,6 +813,112 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="14163675"/>
+          <a:ext cx="6686550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Cross 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="21240750"/>
+          <a:ext cx="647700" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1067,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB134"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView topLeftCell="D110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD102" sqref="AD102:AR130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5808,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="Q154" sqref="Q154"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10749,4 +10890,4482 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="AN111" sqref="AN111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="7"/>
+    </row>
+    <row r="2" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="24"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G11" s="11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
+      <c r="S12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="G15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="4"/>
+    </row>
+    <row r="20" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G20" s="11"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G21" s="11"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G22" s="11"/>
+      <c r="H22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="4"/>
+    </row>
+    <row r="23" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="4"/>
+    </row>
+    <row r="24" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="4"/>
+    </row>
+    <row r="25" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G25" s="11"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="4"/>
+    </row>
+    <row r="26" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G26" s="11"/>
+      <c r="H26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="4"/>
+    </row>
+    <row r="27" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G27" s="11"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="4"/>
+    </row>
+    <row r="28" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="4"/>
+    </row>
+    <row r="29" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+      <c r="H29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="4"/>
+    </row>
+    <row r="30" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="4"/>
+    </row>
+    <row r="31" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G31" s="11"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="4"/>
+    </row>
+    <row r="32" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G32" s="11"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="4"/>
+    </row>
+    <row r="33" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="4"/>
+    </row>
+    <row r="34" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
+      <c r="H34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="4"/>
+    </row>
+    <row r="35" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G35" s="11"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="4"/>
+    </row>
+    <row r="36" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G36" s="11"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="4"/>
+    </row>
+    <row r="37" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G37" s="11"/>
+      <c r="H37" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="4"/>
+    </row>
+    <row r="38" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="4"/>
+    </row>
+    <row r="39" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="4"/>
+    </row>
+    <row r="40" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G40" s="11"/>
+      <c r="H40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="4"/>
+    </row>
+    <row r="41" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G41" s="11"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="4"/>
+    </row>
+    <row r="42" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G42" s="11"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="4"/>
+    </row>
+    <row r="43" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G43" s="11"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="4"/>
+    </row>
+    <row r="44" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G44" s="11"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="4"/>
+    </row>
+    <row r="45" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G45" s="11"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="4"/>
+    </row>
+    <row r="46" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G46" s="11"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="4"/>
+    </row>
+    <row r="47" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G47" s="11"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="4"/>
+    </row>
+    <row r="48" spans="7:33" x14ac:dyDescent="0.25">
+      <c r="G48" s="11"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="4"/>
+    </row>
+    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G49" s="11"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="4"/>
+    </row>
+    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G50" s="11"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="4"/>
+    </row>
+    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G51" s="11"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="4"/>
+    </row>
+    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G52" s="11"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="4"/>
+    </row>
+    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G53" s="11"/>
+      <c r="H53" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="4"/>
+    </row>
+    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G54" s="11"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="4"/>
+    </row>
+    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G55" s="11"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="4"/>
+    </row>
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="G56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="1"/>
+    </row>
+    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="7"/>
+    </row>
+    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="1"/>
+    </row>
+    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="23"/>
+      <c r="AE63" s="24"/>
+      <c r="AH63" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="8"/>
+      <c r="AN63" s="8"/>
+      <c r="AO63" s="8"/>
+      <c r="AP63" s="8"/>
+      <c r="AQ63" s="8"/>
+      <c r="AR63" s="8"/>
+      <c r="AS63" s="8"/>
+      <c r="AT63" s="8"/>
+      <c r="AU63" s="8"/>
+      <c r="AV63" s="8"/>
+      <c r="AW63" s="8"/>
+      <c r="AX63" s="8"/>
+      <c r="AY63" s="8"/>
+      <c r="AZ63" s="8"/>
+      <c r="BA63" s="8"/>
+      <c r="BB63" s="8"/>
+      <c r="BC63" s="8"/>
+      <c r="BD63" s="8"/>
+      <c r="BE63" s="8"/>
+      <c r="BF63" s="8"/>
+      <c r="BG63" s="8"/>
+      <c r="BH63" s="8"/>
+      <c r="BI63" s="8"/>
+      <c r="BJ63" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="7"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2"/>
+      <c r="AL64" s="2"/>
+      <c r="AM64" s="2"/>
+      <c r="AN64" s="2"/>
+      <c r="AO64" s="2"/>
+      <c r="AP64" s="2"/>
+      <c r="AQ64" s="2"/>
+      <c r="AR64" s="2"/>
+      <c r="AS64" s="2"/>
+      <c r="AT64" s="2"/>
+      <c r="AU64" s="2"/>
+      <c r="AV64" s="2"/>
+      <c r="AW64" s="2"/>
+      <c r="AX64" s="2"/>
+      <c r="AY64" s="2"/>
+      <c r="AZ64" s="2"/>
+      <c r="BA64" s="2"/>
+      <c r="BB64" s="2"/>
+      <c r="BC64" s="2"/>
+      <c r="BD64" s="2"/>
+      <c r="BE64" s="2"/>
+      <c r="BF64" s="2"/>
+      <c r="BG64" s="2"/>
+      <c r="BH64" s="2"/>
+      <c r="BI64" s="2"/>
+      <c r="BJ64" s="1"/>
+    </row>
+    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="4"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="5"/>
+      <c r="AS65" s="5"/>
+      <c r="AT65" s="5"/>
+      <c r="AU65" s="5"/>
+      <c r="AV65" s="5"/>
+      <c r="AW65" s="5"/>
+      <c r="AX65" s="5"/>
+      <c r="AY65" s="5"/>
+      <c r="AZ65" s="5"/>
+      <c r="BA65" s="5"/>
+      <c r="BB65" s="5"/>
+      <c r="BC65" s="5"/>
+      <c r="BD65" s="5"/>
+      <c r="BE65" s="5"/>
+      <c r="BF65" s="5"/>
+      <c r="BG65" s="5"/>
+      <c r="BH65" s="5"/>
+      <c r="BI65" s="5"/>
+      <c r="BJ65" s="4"/>
+    </row>
+    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J66" s="23"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="M66" s="24"/>
+      <c r="N66" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="4"/>
+      <c r="AH66" s="11"/>
+      <c r="AO66" s="9"/>
+      <c r="AP66" s="8"/>
+      <c r="AQ66" s="8"/>
+      <c r="AR66" s="8"/>
+      <c r="AS66" s="8"/>
+      <c r="AT66" s="8"/>
+      <c r="AU66" s="7"/>
+      <c r="AZ66" s="5"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="5"/>
+      <c r="BE66" s="5"/>
+      <c r="BF66" s="5"/>
+      <c r="BG66" s="5"/>
+      <c r="BH66" s="5"/>
+      <c r="BI66" s="5"/>
+      <c r="BJ66" s="4"/>
+    </row>
+    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="4"/>
+      <c r="AH67" s="11"/>
+      <c r="AO67" s="11"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="4"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
+      <c r="BF67" s="5"/>
+      <c r="BG67" s="5"/>
+      <c r="BH67" s="5"/>
+      <c r="BI67" s="5"/>
+      <c r="BJ67" s="4"/>
+    </row>
+    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="4"/>
+      <c r="AH68" s="11"/>
+      <c r="AO68" s="11"/>
+      <c r="AP68" s="5"/>
+      <c r="AQ68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR68" s="5"/>
+      <c r="AS68" s="5"/>
+      <c r="AT68" s="5"/>
+      <c r="AU68" s="4"/>
+      <c r="AZ68" s="5"/>
+      <c r="BA68" s="5"/>
+      <c r="BB68" s="5"/>
+      <c r="BC68" s="5"/>
+      <c r="BD68" s="5"/>
+      <c r="BE68" s="5"/>
+      <c r="BF68" s="5"/>
+      <c r="BG68" s="5"/>
+      <c r="BH68" s="5"/>
+      <c r="BI68" s="5"/>
+      <c r="BJ68" s="4"/>
+    </row>
+    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="4"/>
+      <c r="AH69" s="11"/>
+      <c r="AO69" s="11"/>
+      <c r="AP69" s="5"/>
+      <c r="AQ69" s="5"/>
+      <c r="AR69" s="5"/>
+      <c r="AS69" s="5"/>
+      <c r="AT69" s="5"/>
+      <c r="AU69" s="4"/>
+      <c r="AZ69" s="5"/>
+      <c r="BA69" s="5"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="5"/>
+      <c r="BD69" s="5"/>
+      <c r="BE69" s="5"/>
+      <c r="BF69" s="5"/>
+      <c r="BG69" s="5"/>
+      <c r="BH69" s="5"/>
+      <c r="BI69" s="5"/>
+      <c r="BJ69" s="4"/>
+    </row>
+    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="4"/>
+      <c r="AH70" s="11"/>
+      <c r="AO70" s="11"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="5"/>
+      <c r="AU70" s="4"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5"/>
+      <c r="BD70" s="5"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="5"/>
+      <c r="BG70" s="5"/>
+      <c r="BH70" s="5"/>
+      <c r="BI70" s="5"/>
+      <c r="BJ70" s="4"/>
+    </row>
+    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="4"/>
+      <c r="AH71" s="11"/>
+      <c r="AO71" s="11"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="5"/>
+      <c r="AU71" s="4"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
+      <c r="BD71" s="5"/>
+      <c r="BE71" s="5"/>
+      <c r="BF71" s="5"/>
+      <c r="BG71" s="5"/>
+      <c r="BH71" s="5"/>
+      <c r="BI71" s="5"/>
+      <c r="BJ71" s="4"/>
+    </row>
+    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="4"/>
+      <c r="AH72" s="11"/>
+      <c r="AO72" s="3"/>
+      <c r="AP72" s="2"/>
+      <c r="AQ72" s="2"/>
+      <c r="AR72" s="2"/>
+      <c r="AS72" s="2"/>
+      <c r="AT72" s="2"/>
+      <c r="AU72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ72" s="5"/>
+      <c r="BA72" s="5"/>
+      <c r="BB72" s="5"/>
+      <c r="BC72" s="5"/>
+      <c r="BD72" s="5"/>
+      <c r="BE72" s="5"/>
+      <c r="BF72" s="5"/>
+      <c r="BG72" s="5"/>
+      <c r="BH72" s="5"/>
+      <c r="BI72" s="5"/>
+      <c r="BJ72" s="4"/>
+    </row>
+    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="5"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="4"/>
+      <c r="AH73" s="11"/>
+      <c r="AZ73" s="5"/>
+      <c r="BA73" s="5"/>
+      <c r="BB73" s="5"/>
+      <c r="BC73" s="5"/>
+      <c r="BD73" s="5"/>
+      <c r="BE73" s="5"/>
+      <c r="BF73" s="5"/>
+      <c r="BG73" s="5"/>
+      <c r="BH73" s="5"/>
+      <c r="BI73" s="5"/>
+      <c r="BJ73" s="4"/>
+    </row>
+    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="1"/>
+      <c r="AH74" s="11"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
+      <c r="BE74" s="5"/>
+      <c r="BF74" s="5"/>
+      <c r="BG74" s="5"/>
+      <c r="BH74" s="5"/>
+      <c r="BI74" s="5"/>
+      <c r="BJ74" s="4"/>
+    </row>
+    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AH75" s="11"/>
+      <c r="AI75" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="5"/>
+      <c r="AZ75" s="5"/>
+      <c r="BA75" s="5"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
+      <c r="BE75" s="5"/>
+      <c r="BF75" s="5"/>
+      <c r="BG75" s="5"/>
+      <c r="BH75" s="5"/>
+      <c r="BI75" s="5"/>
+      <c r="BJ75" s="4"/>
+    </row>
+    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AH76" s="11"/>
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
+      <c r="AM76" s="2"/>
+      <c r="AN76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="5"/>
+      <c r="AS76" s="5"/>
+      <c r="AT76" s="5"/>
+      <c r="AU76" s="5"/>
+      <c r="AV76" s="5"/>
+      <c r="AW76" s="5"/>
+      <c r="AX76" s="5"/>
+      <c r="AZ76" s="5"/>
+      <c r="BA76" s="5"/>
+      <c r="BB76" s="5"/>
+      <c r="BC76" s="5"/>
+      <c r="BD76" s="5"/>
+      <c r="BE76" s="5"/>
+      <c r="BF76" s="5"/>
+      <c r="BG76" s="5"/>
+      <c r="BH76" s="5"/>
+      <c r="BI76" s="5"/>
+      <c r="BJ76" s="4"/>
+    </row>
+    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="24"/>
+      <c r="AH77" s="11"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="5"/>
+      <c r="AO77" s="5"/>
+      <c r="AP77" s="5"/>
+      <c r="AQ77" s="5"/>
+      <c r="AR77" s="5"/>
+      <c r="AS77" s="5"/>
+      <c r="AT77" s="5"/>
+      <c r="AU77" s="5"/>
+      <c r="AV77" s="5"/>
+      <c r="AW77" s="5"/>
+      <c r="AX77" s="5"/>
+      <c r="AZ77" s="5"/>
+      <c r="BA77" s="5"/>
+      <c r="BB77" s="5"/>
+      <c r="BC77" s="5"/>
+      <c r="BD77" s="5"/>
+      <c r="BE77" s="5"/>
+      <c r="BF77" s="5"/>
+      <c r="BG77" s="5"/>
+      <c r="BH77" s="5"/>
+      <c r="BI77" s="5"/>
+      <c r="BJ77" s="4"/>
+    </row>
+    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="7"/>
+      <c r="AH78" s="11"/>
+      <c r="AI78" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP78" s="5"/>
+      <c r="AQ78" s="5"/>
+      <c r="AR78" s="5"/>
+      <c r="AS78" s="5"/>
+      <c r="AT78" s="5"/>
+      <c r="AU78" s="5"/>
+      <c r="AV78" s="5"/>
+      <c r="AW78" s="5"/>
+      <c r="AX78" s="5"/>
+      <c r="AZ78" s="5"/>
+      <c r="BA78" s="5"/>
+      <c r="BB78" s="5"/>
+      <c r="BC78" s="5"/>
+      <c r="BD78" s="5"/>
+      <c r="BE78" s="5"/>
+      <c r="BF78" s="5"/>
+      <c r="BG78" s="5"/>
+      <c r="BH78" s="5"/>
+      <c r="BI78" s="5"/>
+      <c r="BJ78" s="4"/>
+    </row>
+    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="4"/>
+      <c r="AH79" s="11"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="2"/>
+      <c r="AN79" s="2"/>
+      <c r="AO79" s="2"/>
+      <c r="AP79" s="5"/>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="5"/>
+      <c r="AS79" s="5"/>
+      <c r="AT79" s="5"/>
+      <c r="AU79" s="5"/>
+      <c r="AV79" s="5"/>
+      <c r="AW79" s="5"/>
+      <c r="AX79" s="5"/>
+      <c r="AZ79" s="5"/>
+      <c r="BA79" s="5"/>
+      <c r="BB79" s="5"/>
+      <c r="BC79" s="5"/>
+      <c r="BD79" s="5"/>
+      <c r="BE79" s="5"/>
+      <c r="BF79" s="5"/>
+      <c r="BG79" s="5"/>
+      <c r="BH79" s="5"/>
+      <c r="BI79" s="5"/>
+      <c r="BJ79" s="4"/>
+    </row>
+    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="4"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="5"/>
+      <c r="AP80" s="5"/>
+      <c r="AQ80" s="5"/>
+      <c r="AR80" s="5"/>
+      <c r="AS80" s="5"/>
+      <c r="AT80" s="5"/>
+      <c r="AU80" s="5"/>
+      <c r="AV80" s="5"/>
+      <c r="AW80" s="5"/>
+      <c r="AX80" s="5"/>
+      <c r="AZ80" s="5"/>
+      <c r="BA80" s="5"/>
+      <c r="BB80" s="5"/>
+      <c r="BC80" s="5"/>
+      <c r="BD80" s="5"/>
+      <c r="BE80" s="5"/>
+      <c r="BF80" s="5"/>
+      <c r="BG80" s="5"/>
+      <c r="BH80" s="5"/>
+      <c r="BI80" s="5"/>
+      <c r="BJ80" s="4"/>
+    </row>
+    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="4"/>
+      <c r="AH81" s="11"/>
+      <c r="AI81" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+      <c r="AM81" s="5"/>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="5"/>
+      <c r="AP81" s="5"/>
+      <c r="AQ81" s="5"/>
+      <c r="AR81" s="5"/>
+      <c r="AS81" s="5"/>
+      <c r="AT81" s="5"/>
+      <c r="AU81" s="5"/>
+      <c r="AV81" s="5"/>
+      <c r="AW81" s="5"/>
+      <c r="AX81" s="5"/>
+      <c r="AZ81" s="5"/>
+      <c r="BA81" s="5"/>
+      <c r="BB81" s="5"/>
+      <c r="BC81" s="5"/>
+      <c r="BD81" s="5"/>
+      <c r="BE81" s="5"/>
+      <c r="BF81" s="5"/>
+      <c r="BG81" s="5"/>
+      <c r="BH81" s="5"/>
+      <c r="BI81" s="5"/>
+      <c r="BJ81" s="4"/>
+    </row>
+    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="4"/>
+      <c r="AH82" s="11"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="5"/>
+      <c r="AT82" s="5"/>
+      <c r="AU82" s="5"/>
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="5"/>
+      <c r="AX82" s="5"/>
+      <c r="AZ82" s="5"/>
+      <c r="BA82" s="5"/>
+      <c r="BB82" s="5"/>
+      <c r="BC82" s="5"/>
+      <c r="BD82" s="5"/>
+      <c r="BE82" s="5"/>
+      <c r="BF82" s="5"/>
+      <c r="BG82" s="5"/>
+      <c r="BH82" s="5"/>
+      <c r="BI82" s="5"/>
+      <c r="BJ82" s="4"/>
+    </row>
+    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="4"/>
+      <c r="AH83" s="11"/>
+      <c r="AI83" s="9"/>
+      <c r="AJ83" s="8"/>
+      <c r="AK83" s="8"/>
+      <c r="AL83" s="8"/>
+      <c r="AM83" s="8"/>
+      <c r="AN83" s="8"/>
+      <c r="AO83" s="8"/>
+      <c r="AP83" s="8"/>
+      <c r="AQ83" s="8"/>
+      <c r="AR83" s="8"/>
+      <c r="AS83" s="8"/>
+      <c r="AT83" s="8"/>
+      <c r="AU83" s="8"/>
+      <c r="AV83" s="8"/>
+      <c r="AW83" s="8"/>
+      <c r="AX83" s="7"/>
+      <c r="AZ83" s="5"/>
+      <c r="BA83" s="5"/>
+      <c r="BB83" s="5"/>
+      <c r="BC83" s="5"/>
+      <c r="BD83" s="5"/>
+      <c r="BE83" s="5"/>
+      <c r="BF83" s="5"/>
+      <c r="BG83" s="5"/>
+      <c r="BH83" s="5"/>
+      <c r="BI83" s="5"/>
+      <c r="BJ83" s="4"/>
+    </row>
+    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="4"/>
+      <c r="AH84" s="11"/>
+      <c r="AI84" s="11"/>
+      <c r="AJ84" s="5"/>
+      <c r="AK84" s="5"/>
+      <c r="AL84" s="5"/>
+      <c r="AM84" s="5"/>
+      <c r="AN84" s="5"/>
+      <c r="AO84" s="5"/>
+      <c r="AP84" s="5"/>
+      <c r="AQ84" s="5"/>
+      <c r="AR84" s="5"/>
+      <c r="AS84" s="5"/>
+      <c r="AT84" s="5"/>
+      <c r="AU84" s="5"/>
+      <c r="AV84" s="5"/>
+      <c r="AW84" s="5"/>
+      <c r="AX84" s="4"/>
+      <c r="AZ84" s="5"/>
+      <c r="BA84" s="5"/>
+      <c r="BB84" s="5"/>
+      <c r="BC84" s="5"/>
+      <c r="BD84" s="5"/>
+      <c r="BE84" s="5"/>
+      <c r="BF84" s="5"/>
+      <c r="BG84" s="5"/>
+      <c r="BH84" s="5"/>
+      <c r="BI84" s="5"/>
+      <c r="BJ84" s="4"/>
+    </row>
+    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="4"/>
+      <c r="AH85" s="11"/>
+      <c r="AI85" s="11"/>
+      <c r="AJ85" s="5"/>
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5"/>
+      <c r="AM85" s="5"/>
+      <c r="AN85" s="5"/>
+      <c r="AO85" s="5"/>
+      <c r="AP85" s="5"/>
+      <c r="AQ85" s="5"/>
+      <c r="AR85" s="5"/>
+      <c r="AS85" s="5"/>
+      <c r="AT85" s="5"/>
+      <c r="AU85" s="5"/>
+      <c r="AV85" s="5"/>
+      <c r="AW85" s="5"/>
+      <c r="AX85" s="4"/>
+      <c r="AZ85" s="5"/>
+      <c r="BA85" s="5"/>
+      <c r="BB85" s="5"/>
+      <c r="BC85" s="5"/>
+      <c r="BD85" s="5"/>
+      <c r="BE85" s="5"/>
+      <c r="BF85" s="5"/>
+      <c r="BG85" s="5"/>
+      <c r="BH85" s="5"/>
+      <c r="BI85" s="5"/>
+      <c r="BJ85" s="4"/>
+    </row>
+    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="4"/>
+      <c r="AH86" s="11"/>
+      <c r="AI86" s="3"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2"/>
+      <c r="AL86" s="2"/>
+      <c r="AM86" s="2"/>
+      <c r="AN86" s="2"/>
+      <c r="AO86" s="2"/>
+      <c r="AP86" s="2"/>
+      <c r="AQ86" s="2"/>
+      <c r="AR86" s="2"/>
+      <c r="AS86" s="2"/>
+      <c r="AT86" s="2"/>
+      <c r="AU86" s="2"/>
+      <c r="AV86" s="2"/>
+      <c r="AW86" s="2"/>
+      <c r="AX86" s="1"/>
+      <c r="AZ86" s="5"/>
+      <c r="BA86" s="5"/>
+      <c r="BB86" s="5"/>
+      <c r="BC86" s="5"/>
+      <c r="BD86" s="5"/>
+      <c r="BE86" s="5"/>
+      <c r="BF86" s="5"/>
+      <c r="BG86" s="5"/>
+      <c r="BH86" s="5"/>
+      <c r="BI86" s="5"/>
+      <c r="BJ86" s="4"/>
+    </row>
+    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="4"/>
+      <c r="AH87" s="11"/>
+      <c r="AZ87" s="5"/>
+      <c r="BA87" s="5"/>
+      <c r="BB87" s="5"/>
+      <c r="BC87" s="5"/>
+      <c r="BD87" s="5"/>
+      <c r="BE87" s="5"/>
+      <c r="BF87" s="5"/>
+      <c r="BG87" s="5"/>
+      <c r="BH87" s="5"/>
+      <c r="BI87" s="5"/>
+      <c r="BJ87" s="4"/>
+    </row>
+    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="4"/>
+      <c r="AH88" s="11"/>
+      <c r="AZ88" s="5"/>
+      <c r="BA88" s="5"/>
+      <c r="BB88" s="5"/>
+      <c r="BC88" s="5"/>
+      <c r="BD88" s="5"/>
+      <c r="BE88" s="5"/>
+      <c r="BF88" s="5"/>
+      <c r="BG88" s="5"/>
+      <c r="BH88" s="5"/>
+      <c r="BI88" s="5"/>
+      <c r="BJ88" s="4"/>
+    </row>
+    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="5"/>
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="4"/>
+      <c r="AH89" s="11"/>
+      <c r="AI89" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ89" s="23"/>
+      <c r="AK89" s="24"/>
+      <c r="AZ89" s="5"/>
+      <c r="BA89" s="5"/>
+      <c r="BB89" s="5"/>
+      <c r="BC89" s="5"/>
+      <c r="BD89" s="5"/>
+      <c r="BE89" s="5"/>
+      <c r="BF89" s="5"/>
+      <c r="BG89" s="5"/>
+      <c r="BH89" s="5"/>
+      <c r="BI89" s="5"/>
+      <c r="BJ89" s="4"/>
+    </row>
+    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="4"/>
+      <c r="AH90" s="11"/>
+      <c r="AZ90" s="5"/>
+      <c r="BA90" s="5"/>
+      <c r="BB90" s="5"/>
+      <c r="BC90" s="5"/>
+      <c r="BD90" s="5"/>
+      <c r="BE90" s="5"/>
+      <c r="BF90" s="5"/>
+      <c r="BG90" s="5"/>
+      <c r="BH90" s="5"/>
+      <c r="BI90" s="5"/>
+      <c r="BJ90" s="4"/>
+    </row>
+    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="4"/>
+      <c r="AH91" s="11"/>
+      <c r="AZ91" s="5"/>
+      <c r="BA91" s="5"/>
+      <c r="BB91" s="5"/>
+      <c r="BC91" s="5"/>
+      <c r="BD91" s="5"/>
+      <c r="BE91" s="5"/>
+      <c r="BF91" s="5"/>
+      <c r="BG91" s="5"/>
+      <c r="BH91" s="5"/>
+      <c r="BI91" s="5"/>
+      <c r="BJ91" s="4"/>
+    </row>
+    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="4"/>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+      <c r="AK92" s="5"/>
+      <c r="AL92" s="5"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="5"/>
+      <c r="AO92" s="5"/>
+      <c r="AP92" s="5"/>
+      <c r="AQ92" s="5"/>
+      <c r="AR92" s="5"/>
+      <c r="AS92" s="5"/>
+      <c r="AT92" s="5"/>
+      <c r="AU92" s="5"/>
+      <c r="AV92" s="5"/>
+      <c r="AW92" s="5"/>
+      <c r="AX92" s="5"/>
+      <c r="AY92" s="5"/>
+      <c r="AZ92" s="5"/>
+      <c r="BA92" s="5"/>
+      <c r="BB92" s="5"/>
+      <c r="BC92" s="5"/>
+      <c r="BD92" s="5"/>
+      <c r="BE92" s="5"/>
+      <c r="BF92" s="5"/>
+      <c r="BG92" s="5"/>
+      <c r="BH92" s="5"/>
+      <c r="BI92" s="5"/>
+      <c r="BJ92" s="4"/>
+    </row>
+    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="4"/>
+      <c r="AH93" s="3"/>
+      <c r="AI93" s="2"/>
+      <c r="AJ93" s="2"/>
+      <c r="AK93" s="2"/>
+      <c r="AL93" s="2"/>
+      <c r="AM93" s="2"/>
+      <c r="AN93" s="2"/>
+      <c r="AO93" s="2"/>
+      <c r="AP93" s="2"/>
+      <c r="AQ93" s="2"/>
+      <c r="AR93" s="2"/>
+      <c r="AS93" s="2"/>
+      <c r="AT93" s="2"/>
+      <c r="AU93" s="2"/>
+      <c r="AV93" s="2"/>
+      <c r="AW93" s="2"/>
+      <c r="AX93" s="2"/>
+      <c r="AY93" s="2"/>
+      <c r="AZ93" s="2"/>
+      <c r="BA93" s="2"/>
+      <c r="BB93" s="2"/>
+      <c r="BC93" s="2"/>
+      <c r="BD93" s="2"/>
+      <c r="BE93" s="2"/>
+      <c r="BF93" s="2"/>
+      <c r="BG93" s="2"/>
+      <c r="BH93" s="2"/>
+      <c r="BI93" s="2"/>
+      <c r="BJ93" s="1"/>
+    </row>
+    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="4"/>
+    </row>
+    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="4"/>
+    </row>
+    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="4"/>
+    </row>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="4"/>
+    </row>
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="4"/>
+    </row>
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="4"/>
+    </row>
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="4"/>
+    </row>
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="1"/>
+    </row>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A104" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
+      <c r="P104" s="23"/>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="23"/>
+      <c r="S104" s="23"/>
+      <c r="T104" s="23"/>
+      <c r="U104" s="23"/>
+      <c r="V104" s="23"/>
+      <c r="W104" s="23"/>
+      <c r="X104" s="23"/>
+      <c r="Y104" s="23"/>
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="23"/>
+      <c r="AE104" s="23"/>
+      <c r="AF104" s="23"/>
+      <c r="AG104" s="23"/>
+      <c r="AH104" s="24"/>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="8"/>
+      <c r="X105" s="8"/>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+      <c r="AB105" s="8"/>
+      <c r="AC105" s="8"/>
+      <c r="AD105" s="8"/>
+      <c r="AE105" s="8"/>
+      <c r="AF105" s="8"/>
+      <c r="AG105" s="8"/>
+      <c r="AH105" s="7"/>
+    </row>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="8"/>
+      <c r="Z106" s="8"/>
+      <c r="AA106" s="8"/>
+      <c r="AB106" s="8"/>
+      <c r="AC106" s="8"/>
+      <c r="AD106" s="8"/>
+      <c r="AE106" s="7"/>
+      <c r="AF106" s="5"/>
+      <c r="AG106" s="5"/>
+      <c r="AH106" s="4"/>
+    </row>
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="11"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="4"/>
+      <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="4"/>
+    </row>
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="11"/>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
+      <c r="AE108" s="4"/>
+      <c r="AF108" s="5"/>
+      <c r="AG108" s="5"/>
+      <c r="AH108" s="4"/>
+      <c r="AT108" s="5"/>
+    </row>
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="11"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
+      <c r="AE109" s="4"/>
+      <c r="AF109" s="5"/>
+      <c r="AG109" s="5"/>
+      <c r="AH109" s="4"/>
+    </row>
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="11"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="4"/>
+      <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="4"/>
+    </row>
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="11"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="4"/>
+      <c r="AF111" s="5"/>
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="4"/>
+    </row>
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="5"/>
+      <c r="W112" s="5"/>
+      <c r="X112" s="11"/>
+      <c r="Y112" s="5"/>
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="4"/>
+      <c r="AF112" s="5"/>
+      <c r="AG112" s="5"/>
+      <c r="AH112" s="4"/>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="11"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="4"/>
+      <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="4"/>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="11"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="4"/>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="4"/>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="11"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="4"/>
+      <c r="AF115" s="5"/>
+      <c r="AG115" s="5"/>
+      <c r="AH115" s="4"/>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="5"/>
+      <c r="AG116" s="5"/>
+      <c r="AH116" s="4"/>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="U117" s="5"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="5"/>
+      <c r="X117" s="5"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
+      <c r="AE117" s="5"/>
+      <c r="AF117" s="5"/>
+      <c r="AG117" s="5"/>
+      <c r="AH117" s="4"/>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+      <c r="AG118" s="5"/>
+      <c r="AH118" s="4"/>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="5"/>
+      <c r="AG119" s="5"/>
+      <c r="AH119" s="4"/>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A120" s="11"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="5"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+      <c r="AE120" s="5"/>
+      <c r="AF120" s="5"/>
+      <c r="AG120" s="5"/>
+      <c r="AH120" s="4"/>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="4"/>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+      <c r="Y122" s="5"/>
+      <c r="Z122" s="5"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5"/>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+      <c r="AE122" s="5"/>
+      <c r="AF122" s="5"/>
+      <c r="AG122" s="5"/>
+      <c r="AH122" s="4"/>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="5"/>
+      <c r="AF123" s="5"/>
+      <c r="AG123" s="5"/>
+      <c r="AH123" s="4"/>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="2"/>
+      <c r="AG124" s="2"/>
+      <c r="AH124" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/document/Main Page.xlsx
+++ b/document/Main Page.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="78">
   <si>
     <t>LOGO</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Create Profile</t>
-  </si>
-  <si>
-    <t>Dialog Register</t>
   </si>
   <si>
     <t>Halaman Traveller Profile</t>
@@ -247,6 +244,12 @@
   </si>
   <si>
     <t>My Photo Album</t>
+  </si>
+  <si>
+    <t>Halaman Register</t>
+  </si>
+  <si>
+    <t>Login With Facebok</t>
   </si>
 </sst>
 </file>
@@ -767,13 +770,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -860,60 +863,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Cross 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6353175" y="21240750"/>
-          <a:ext cx="647700" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="plus">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1206,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB134"/>
+  <dimension ref="A1:BB139"/>
   <sheetViews>
-    <sheetView topLeftCell="D110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD102" sqref="AD102:AR130"/>
+    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV127" sqref="AV127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1461,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="20"/>
       <c r="AL8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -3064,7 +3013,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
@@ -3581,17 +3530,17 @@
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="7"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -3608,393 +3557,259 @@
       <c r="Z83" s="4"/>
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="1"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="4"/>
+    </row>
+    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="4"/>
+    </row>
+    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="4"/>
+    </row>
+    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="4"/>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC88" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="A88" s="11"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="4"/>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="7"/>
-      <c r="AC89" s="32"/>
-      <c r="AD89" s="8"/>
-      <c r="AE89" s="7"/>
-      <c r="AF89" s="8"/>
-      <c r="AG89" s="8"/>
-      <c r="AH89" s="8"/>
-      <c r="AI89" s="8"/>
-      <c r="AJ89" s="8"/>
-      <c r="AK89" s="8"/>
-      <c r="AL89" s="8"/>
-      <c r="AM89" s="8"/>
-      <c r="AN89" s="8"/>
-      <c r="AO89" s="8"/>
-      <c r="AP89" s="8"/>
-      <c r="AQ89" s="8"/>
-      <c r="AR89" s="8"/>
-      <c r="AS89" s="8"/>
-      <c r="AT89" s="8"/>
-      <c r="AU89" s="8"/>
-      <c r="AV89" s="8"/>
-      <c r="AW89" s="8"/>
-      <c r="AX89" s="8"/>
-      <c r="AY89" s="8"/>
-      <c r="AZ89" s="8"/>
-      <c r="BA89" s="8"/>
-      <c r="BB89" s="7"/>
-    </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30" t="s">
+      <c r="A89" s="3"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="1"/>
+    </row>
+    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC93" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="7"/>
+      <c r="AC94" s="32"/>
+      <c r="AD94" s="8"/>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="8"/>
+      <c r="AG94" s="8"/>
+      <c r="AH94" s="8"/>
+      <c r="AI94" s="8"/>
+      <c r="AJ94" s="8"/>
+      <c r="AK94" s="8"/>
+      <c r="AL94" s="8"/>
+      <c r="AM94" s="8"/>
+      <c r="AN94" s="8"/>
+      <c r="AO94" s="8"/>
+      <c r="AP94" s="8"/>
+      <c r="AQ94" s="8"/>
+      <c r="AR94" s="8"/>
+      <c r="AS94" s="8"/>
+      <c r="AT94" s="8"/>
+      <c r="AU94" s="8"/>
+      <c r="AV94" s="8"/>
+      <c r="AW94" s="8"/>
+      <c r="AX94" s="8"/>
+      <c r="AY94" s="8"/>
+      <c r="AZ94" s="8"/>
+      <c r="BA94" s="8"/>
+      <c r="BB94" s="7"/>
+    </row>
+    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="4"/>
-      <c r="AC90" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="4"/>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="5"/>
-      <c r="AH90" s="5"/>
-      <c r="AI90" s="5"/>
-      <c r="AJ90" s="5"/>
-      <c r="AK90" s="30"/>
-      <c r="AL90" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM90" s="5"/>
-      <c r="AN90" s="5"/>
-      <c r="AO90" s="5"/>
-      <c r="AP90" s="5"/>
-      <c r="AQ90" s="5"/>
-      <c r="AR90" s="5"/>
-      <c r="AS90" s="5"/>
-      <c r="AT90" s="5"/>
-      <c r="AU90" s="5"/>
-      <c r="AV90" s="5"/>
-      <c r="AW90" s="5"/>
-      <c r="AX90" s="5"/>
-      <c r="AY90" s="5"/>
-      <c r="AZ90" s="5"/>
-      <c r="BA90" s="5"/>
-      <c r="BB90" s="4"/>
-    </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="1"/>
-      <c r="AC91" s="3"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="1"/>
-      <c r="AF91" s="2"/>
-      <c r="AG91" s="2"/>
-      <c r="AH91" s="2"/>
-      <c r="AI91" s="2"/>
-      <c r="AJ91" s="2"/>
-      <c r="AK91" s="2"/>
-      <c r="AL91" s="2"/>
-      <c r="AM91" s="2"/>
-      <c r="AN91" s="2"/>
-      <c r="AO91" s="2"/>
-      <c r="AP91" s="2"/>
-      <c r="AQ91" s="2"/>
-      <c r="AR91" s="2"/>
-      <c r="AS91" s="2"/>
-      <c r="AT91" s="2"/>
-      <c r="AU91" s="2"/>
-      <c r="AV91" s="2"/>
-      <c r="AW91" s="2"/>
-      <c r="AX91" s="2"/>
-      <c r="AY91" s="2"/>
-      <c r="AZ91" s="2"/>
-      <c r="BA91" s="2"/>
-      <c r="BB91" s="1"/>
-    </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="7"/>
-      <c r="AC92" s="9"/>
-      <c r="AD92" s="8"/>
-      <c r="AE92" s="8"/>
-      <c r="AF92" s="8"/>
-      <c r="AG92" s="8"/>
-      <c r="AH92" s="8"/>
-      <c r="AI92" s="8"/>
-      <c r="AJ92" s="8"/>
-      <c r="AK92" s="8"/>
-      <c r="AL92" s="8"/>
-      <c r="AM92" s="8"/>
-      <c r="AN92" s="8"/>
-      <c r="AO92" s="8"/>
-      <c r="AP92" s="8"/>
-      <c r="AQ92" s="8"/>
-      <c r="AR92" s="8"/>
-      <c r="AS92" s="8"/>
-      <c r="AT92" s="8"/>
-      <c r="AU92" s="8"/>
-      <c r="AV92" s="8"/>
-      <c r="AW92" s="8"/>
-      <c r="AX92" s="8"/>
-      <c r="AY92" s="8"/>
-      <c r="AZ92" s="8"/>
-      <c r="BA92" s="8"/>
-      <c r="BB92" s="7"/>
-    </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="4"/>
-      <c r="AC93" s="11"/>
-      <c r="AD93" s="5"/>
-      <c r="AE93" s="5"/>
-      <c r="AF93" s="5"/>
-      <c r="AG93" s="5"/>
-      <c r="AH93" s="5"/>
-      <c r="AI93" s="5"/>
-      <c r="AJ93" s="5"/>
-      <c r="AK93" s="5"/>
-      <c r="AL93" s="5"/>
-      <c r="AM93" s="5"/>
-      <c r="AN93" s="9"/>
-      <c r="AO93" s="8"/>
-      <c r="AP93" s="8"/>
-      <c r="AQ93" s="8"/>
-      <c r="AR93" s="8"/>
-      <c r="AS93" s="7"/>
-      <c r="AT93" s="5"/>
-      <c r="AU93" s="5"/>
-      <c r="AV93" s="5"/>
-      <c r="AW93" s="5"/>
-      <c r="AX93" s="5"/>
-      <c r="AY93" s="5"/>
-      <c r="AZ93" s="5"/>
-      <c r="BA93" s="5"/>
-      <c r="BB93" s="4"/>
-    </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="4"/>
-      <c r="AC94" s="11"/>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="5"/>
-      <c r="AF94" s="5"/>
-      <c r="AG94" s="5"/>
-      <c r="AH94" s="5"/>
-      <c r="AI94" s="5"/>
-      <c r="AJ94" s="5"/>
-      <c r="AK94" s="5"/>
-      <c r="AL94" s="5"/>
-      <c r="AM94" s="5"/>
-      <c r="AN94" s="11"/>
-      <c r="AO94" s="5"/>
-      <c r="AP94" s="5"/>
-      <c r="AQ94" s="5"/>
-      <c r="AR94" s="5"/>
-      <c r="AS94" s="4"/>
-      <c r="AT94" s="5"/>
-      <c r="AU94" s="5"/>
-      <c r="AV94" s="5"/>
-      <c r="AW94" s="5"/>
-      <c r="AX94" s="5"/>
-      <c r="AY94" s="5"/>
-      <c r="AZ94" s="5"/>
-      <c r="BA94" s="5"/>
-      <c r="BB94" s="4"/>
-    </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+      <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="11"/>
+      <c r="L95" s="5"/>
       <c r="M95" s="5"/>
-      <c r="N95" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
-      <c r="Q95" s="4"/>
+      <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
@@ -4004,25 +3819,27 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
       <c r="Z95" s="4"/>
-      <c r="AC95" s="11"/>
+      <c r="AC95" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="AD95" s="5"/>
-      <c r="AE95" s="5"/>
+      <c r="AE95" s="4"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
-      <c r="AK95" s="5"/>
-      <c r="AL95" s="5"/>
+      <c r="AK95" s="30"/>
+      <c r="AL95" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="AM95" s="5"/>
-      <c r="AN95" s="11"/>
+      <c r="AN95" s="5"/>
       <c r="AO95" s="5"/>
-      <c r="AP95" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="AP95" s="5"/>
       <c r="AQ95" s="5"/>
       <c r="AR95" s="5"/>
-      <c r="AS95" s="4"/>
+      <c r="AS95" s="5"/>
       <c r="AT95" s="5"/>
       <c r="AU95" s="5"/>
       <c r="AV95" s="5"/>
@@ -4034,112 +3851,112 @@
       <c r="BB95" s="4"/>
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="4"/>
-      <c r="AC96" s="11"/>
-      <c r="AD96" s="5"/>
-      <c r="AE96" s="5"/>
-      <c r="AF96" s="5"/>
-      <c r="AG96" s="5"/>
-      <c r="AH96" s="5"/>
-      <c r="AI96" s="5"/>
-      <c r="AJ96" s="5"/>
-      <c r="AK96" s="5"/>
-      <c r="AL96" s="5"/>
-      <c r="AM96" s="5"/>
-      <c r="AN96" s="11"/>
-      <c r="AO96" s="5"/>
-      <c r="AP96" s="5"/>
-      <c r="AQ96" s="5"/>
-      <c r="AR96" s="5"/>
-      <c r="AS96" s="4"/>
-      <c r="AT96" s="5"/>
-      <c r="AU96" s="5"/>
-      <c r="AV96" s="5"/>
-      <c r="AW96" s="5"/>
-      <c r="AX96" s="5"/>
-      <c r="AY96" s="5"/>
-      <c r="AZ96" s="5"/>
-      <c r="BA96" s="5"/>
-      <c r="BB96" s="4"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="1"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="2"/>
+      <c r="AG96" s="2"/>
+      <c r="AH96" s="2"/>
+      <c r="AI96" s="2"/>
+      <c r="AJ96" s="2"/>
+      <c r="AK96" s="2"/>
+      <c r="AL96" s="2"/>
+      <c r="AM96" s="2"/>
+      <c r="AN96" s="2"/>
+      <c r="AO96" s="2"/>
+      <c r="AP96" s="2"/>
+      <c r="AQ96" s="2"/>
+      <c r="AR96" s="2"/>
+      <c r="AS96" s="2"/>
+      <c r="AT96" s="2"/>
+      <c r="AU96" s="2"/>
+      <c r="AV96" s="2"/>
+      <c r="AW96" s="2"/>
+      <c r="AX96" s="2"/>
+      <c r="AY96" s="2"/>
+      <c r="AZ96" s="2"/>
+      <c r="BA96" s="2"/>
+      <c r="BB96" s="1"/>
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-      <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="4"/>
-      <c r="AC97" s="11"/>
-      <c r="AD97" s="5"/>
-      <c r="AE97" s="5"/>
-      <c r="AF97" s="5"/>
-      <c r="AG97" s="5"/>
-      <c r="AH97" s="5"/>
-      <c r="AI97" s="5"/>
-      <c r="AJ97" s="5"/>
-      <c r="AK97" s="5"/>
-      <c r="AL97" s="5"/>
-      <c r="AM97" s="5"/>
-      <c r="AN97" s="11"/>
-      <c r="AO97" s="5"/>
-      <c r="AP97" s="5"/>
-      <c r="AQ97" s="5"/>
-      <c r="AR97" s="5"/>
-      <c r="AS97" s="4"/>
-      <c r="AT97" s="5"/>
-      <c r="AU97" s="5"/>
-      <c r="AV97" s="5"/>
-      <c r="AW97" s="5"/>
-      <c r="AX97" s="5"/>
-      <c r="AY97" s="5"/>
-      <c r="AZ97" s="5"/>
-      <c r="BA97" s="5"/>
-      <c r="BB97" s="4"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="7"/>
+      <c r="AC97" s="9"/>
+      <c r="AD97" s="8"/>
+      <c r="AE97" s="8"/>
+      <c r="AF97" s="8"/>
+      <c r="AG97" s="8"/>
+      <c r="AH97" s="8"/>
+      <c r="AI97" s="8"/>
+      <c r="AJ97" s="8"/>
+      <c r="AK97" s="8"/>
+      <c r="AL97" s="8"/>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+      <c r="AO97" s="8"/>
+      <c r="AP97" s="8"/>
+      <c r="AQ97" s="8"/>
+      <c r="AR97" s="8"/>
+      <c r="AS97" s="8"/>
+      <c r="AT97" s="8"/>
+      <c r="AU97" s="8"/>
+      <c r="AV97" s="8"/>
+      <c r="AW97" s="8"/>
+      <c r="AX97" s="8"/>
+      <c r="AY97" s="8"/>
+      <c r="AZ97" s="8"/>
+      <c r="BA97" s="8"/>
+      <c r="BB97" s="7"/>
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
@@ -4153,12 +3970,12 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="1"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="7"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
@@ -4179,12 +3996,12 @@
       <c r="AK98" s="5"/>
       <c r="AL98" s="5"/>
       <c r="AM98" s="5"/>
-      <c r="AN98" s="3"/>
-      <c r="AO98" s="2"/>
-      <c r="AP98" s="2"/>
-      <c r="AQ98" s="2"/>
-      <c r="AR98" s="2"/>
-      <c r="AS98" s="1"/>
+      <c r="AN98" s="9"/>
+      <c r="AO98" s="8"/>
+      <c r="AP98" s="8"/>
+      <c r="AQ98" s="8"/>
+      <c r="AR98" s="8"/>
+      <c r="AS98" s="7"/>
       <c r="AT98" s="5"/>
       <c r="AU98" s="5"/>
       <c r="AV98" s="5"/>
@@ -4207,12 +4024,12 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
+      <c r="Q99" s="4"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
       <c r="T99" s="5"/>
@@ -4233,12 +4050,12 @@
       <c r="AK99" s="5"/>
       <c r="AL99" s="5"/>
       <c r="AM99" s="5"/>
-      <c r="AN99" s="5"/>
+      <c r="AN99" s="11"/>
       <c r="AO99" s="5"/>
       <c r="AP99" s="5"/>
       <c r="AQ99" s="5"/>
       <c r="AR99" s="5"/>
-      <c r="AS99" s="5"/>
+      <c r="AS99" s="4"/>
       <c r="AT99" s="5"/>
       <c r="AU99" s="5"/>
       <c r="AV99" s="5"/>
@@ -4261,16 +4078,16 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="23"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="R100" s="23"/>
-      <c r="S100" s="24"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5"/>
@@ -4289,16 +4106,16 @@
       <c r="AK100" s="5"/>
       <c r="AL100" s="5"/>
       <c r="AM100" s="5"/>
-      <c r="AN100" s="22"/>
-      <c r="AO100" s="23"/>
-      <c r="AP100" s="23"/>
-      <c r="AQ100" s="23"/>
-      <c r="AR100" s="24"/>
-      <c r="AS100" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT100" s="23"/>
-      <c r="AU100" s="24"/>
+      <c r="AN100" s="11"/>
+      <c r="AO100" s="5"/>
+      <c r="AP100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ100" s="5"/>
+      <c r="AR100" s="5"/>
+      <c r="AS100" s="4"/>
+      <c r="AT100" s="5"/>
+      <c r="AU100" s="5"/>
       <c r="AV100" s="5"/>
       <c r="AW100" s="5"/>
       <c r="AX100" s="5"/>
@@ -4319,12 +4136,12 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
+      <c r="L101" s="11"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
+      <c r="Q101" s="4"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
@@ -4345,12 +4162,12 @@
       <c r="AK101" s="5"/>
       <c r="AL101" s="5"/>
       <c r="AM101" s="5"/>
-      <c r="AN101" s="5"/>
+      <c r="AN101" s="11"/>
       <c r="AO101" s="5"/>
       <c r="AP101" s="5"/>
       <c r="AQ101" s="5"/>
       <c r="AR101" s="5"/>
-      <c r="AS101" s="5"/>
+      <c r="AS101" s="4"/>
       <c r="AT101" s="5"/>
       <c r="AU101" s="5"/>
       <c r="AV101" s="5"/>
@@ -4363,9 +4180,7 @@
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
-      <c r="B102" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -4374,15 +4189,13 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="11"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
+      <c r="Q102" s="4"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
@@ -4393,9 +4206,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="4"/>
       <c r="AC102" s="11"/>
-      <c r="AD102" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="5"/>
@@ -4404,15 +4215,13 @@
       <c r="AJ102" s="5"/>
       <c r="AK102" s="5"/>
       <c r="AL102" s="5"/>
-      <c r="AM102" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN102" s="5"/>
+      <c r="AM102" s="5"/>
+      <c r="AN102" s="11"/>
       <c r="AO102" s="5"/>
       <c r="AP102" s="5"/>
       <c r="AQ102" s="5"/>
       <c r="AR102" s="5"/>
-      <c r="AS102" s="5"/>
+      <c r="AS102" s="4"/>
       <c r="AT102" s="5"/>
       <c r="AU102" s="5"/>
       <c r="AV102" s="5"/>
@@ -4425,22 +4234,22 @@
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="3"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
+      <c r="Q103" s="1"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
@@ -4451,22 +4260,22 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="4"/>
       <c r="AC103" s="11"/>
-      <c r="AD103" s="2"/>
-      <c r="AE103" s="2"/>
-      <c r="AF103" s="2"/>
-      <c r="AG103" s="2"/>
-      <c r="AH103" s="2"/>
-      <c r="AI103" s="2"/>
-      <c r="AJ103" s="2"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+      <c r="AG103" s="5"/>
+      <c r="AH103" s="5"/>
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
       <c r="AK103" s="5"/>
       <c r="AL103" s="5"/>
-      <c r="AM103" s="2"/>
-      <c r="AN103" s="2"/>
+      <c r="AM103" s="5"/>
+      <c r="AN103" s="3"/>
       <c r="AO103" s="2"/>
       <c r="AP103" s="2"/>
       <c r="AQ103" s="2"/>
       <c r="AR103" s="2"/>
-      <c r="AS103" s="2"/>
+      <c r="AS103" s="1"/>
       <c r="AT103" s="5"/>
       <c r="AU103" s="5"/>
       <c r="AV103" s="5"/>
@@ -4533,9 +4342,7 @@
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
-      <c r="B105" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -4545,14 +4352,16 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="23"/>
+      <c r="O105" s="23"/>
+      <c r="P105" s="24"/>
+      <c r="Q105" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="R105" s="23"/>
+      <c r="S105" s="24"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
       <c r="V105" s="5"/>
@@ -4571,14 +4380,16 @@
       <c r="AK105" s="5"/>
       <c r="AL105" s="5"/>
       <c r="AM105" s="5"/>
-      <c r="AN105" s="5"/>
-      <c r="AO105" s="5"/>
-      <c r="AP105" s="5"/>
-      <c r="AQ105" s="5"/>
-      <c r="AR105" s="5"/>
-      <c r="AS105" s="5"/>
-      <c r="AT105" s="5"/>
-      <c r="AU105" s="5"/>
+      <c r="AN105" s="22"/>
+      <c r="AO105" s="23"/>
+      <c r="AP105" s="23"/>
+      <c r="AQ105" s="23"/>
+      <c r="AR105" s="24"/>
+      <c r="AS105" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT105" s="23"/>
+      <c r="AU105" s="24"/>
       <c r="AV105" s="5"/>
       <c r="AW105" s="5"/>
       <c r="AX105" s="5"/>
@@ -4589,19 +4400,19 @@
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
@@ -4615,9 +4426,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="4"/>
       <c r="AC106" s="11"/>
-      <c r="AD106" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
@@ -4645,19 +4454,23 @@
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
-      <c r="M107" s="23"/>
-      <c r="N107" s="23"/>
+      <c r="B107" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
@@ -4671,19 +4484,23 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="4"/>
       <c r="AC107" s="11"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="2"/>
-      <c r="AF107" s="2"/>
-      <c r="AG107" s="2"/>
-      <c r="AH107" s="2"/>
-      <c r="AI107" s="2"/>
-      <c r="AJ107" s="2"/>
-      <c r="AK107" s="2"/>
-      <c r="AL107" s="2"/>
-      <c r="AM107" s="2"/>
-      <c r="AN107" s="2"/>
-      <c r="AO107" s="2"/>
-      <c r="AP107" s="2"/>
+      <c r="AD107" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+      <c r="AG107" s="5"/>
+      <c r="AH107" s="5"/>
+      <c r="AI107" s="5"/>
+      <c r="AJ107" s="5"/>
+      <c r="AK107" s="5"/>
+      <c r="AL107" s="5"/>
+      <c r="AM107" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN107" s="5"/>
+      <c r="AO107" s="5"/>
+      <c r="AP107" s="5"/>
       <c r="AQ107" s="5"/>
       <c r="AR107" s="5"/>
       <c r="AS107" s="5"/>
@@ -4699,22 +4516,22 @@
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
       <c r="T108" s="5"/>
@@ -4725,22 +4542,22 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="4"/>
       <c r="AC108" s="11"/>
-      <c r="AD108" s="5"/>
-      <c r="AE108" s="5"/>
-      <c r="AF108" s="5"/>
-      <c r="AG108" s="5"/>
-      <c r="AH108" s="5"/>
-      <c r="AI108" s="5"/>
-      <c r="AJ108" s="5"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2"/>
+      <c r="AG108" s="2"/>
+      <c r="AH108" s="2"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
       <c r="AK108" s="5"/>
       <c r="AL108" s="5"/>
-      <c r="AM108" s="5"/>
-      <c r="AN108" s="5"/>
-      <c r="AO108" s="5"/>
-      <c r="AP108" s="5"/>
-      <c r="AQ108" s="5"/>
-      <c r="AR108" s="5"/>
-      <c r="AS108" s="5"/>
+      <c r="AM108" s="2"/>
+      <c r="AN108" s="2"/>
+      <c r="AO108" s="2"/>
+      <c r="AP108" s="2"/>
+      <c r="AQ108" s="2"/>
+      <c r="AR108" s="2"/>
+      <c r="AS108" s="2"/>
       <c r="AT108" s="5"/>
       <c r="AU108" s="5"/>
       <c r="AV108" s="5"/>
@@ -4779,9 +4596,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="4"/>
       <c r="AC109" s="11"/>
-      <c r="AD109" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="5"/>
@@ -4810,7 +4625,7 @@
     <row r="110" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -4837,19 +4652,19 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="4"/>
       <c r="AC110" s="11"/>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="2"/>
-      <c r="AF110" s="2"/>
-      <c r="AG110" s="2"/>
-      <c r="AH110" s="2"/>
-      <c r="AI110" s="2"/>
-      <c r="AJ110" s="2"/>
-      <c r="AK110" s="2"/>
-      <c r="AL110" s="2"/>
-      <c r="AM110" s="2"/>
-      <c r="AN110" s="2"/>
-      <c r="AO110" s="2"/>
-      <c r="AP110" s="2"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+      <c r="AG110" s="5"/>
+      <c r="AH110" s="5"/>
+      <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
+      <c r="AK110" s="5"/>
+      <c r="AL110" s="5"/>
+      <c r="AM110" s="5"/>
+      <c r="AN110" s="5"/>
+      <c r="AO110" s="5"/>
+      <c r="AP110" s="5"/>
       <c r="AQ110" s="5"/>
       <c r="AR110" s="5"/>
       <c r="AS110" s="5"/>
@@ -4870,14 +4685,14 @@
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
@@ -4891,19 +4706,21 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="4"/>
       <c r="AC111" s="11"/>
-      <c r="AD111" s="23"/>
-      <c r="AE111" s="23"/>
-      <c r="AF111" s="23"/>
-      <c r="AG111" s="23"/>
-      <c r="AH111" s="23"/>
-      <c r="AI111" s="23"/>
-      <c r="AJ111" s="23"/>
-      <c r="AK111" s="23"/>
-      <c r="AL111" s="23"/>
-      <c r="AM111" s="23"/>
-      <c r="AN111" s="23"/>
-      <c r="AO111" s="23"/>
-      <c r="AP111" s="23"/>
+      <c r="AD111" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+      <c r="AG111" s="5"/>
+      <c r="AH111" s="5"/>
+      <c r="AI111" s="5"/>
+      <c r="AJ111" s="5"/>
+      <c r="AK111" s="5"/>
+      <c r="AL111" s="5"/>
+      <c r="AM111" s="5"/>
+      <c r="AN111" s="5"/>
+      <c r="AO111" s="5"/>
+      <c r="AP111" s="5"/>
       <c r="AQ111" s="5"/>
       <c r="AR111" s="5"/>
       <c r="AS111" s="5"/>
@@ -4919,19 +4736,19 @@
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="23"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
@@ -4945,19 +4762,19 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="4"/>
       <c r="AC112" s="11"/>
-      <c r="AD112" s="23"/>
-      <c r="AE112" s="23"/>
-      <c r="AF112" s="23"/>
-      <c r="AG112" s="23"/>
-      <c r="AH112" s="23"/>
-      <c r="AI112" s="23"/>
-      <c r="AJ112" s="23"/>
-      <c r="AK112" s="23"/>
-      <c r="AL112" s="23"/>
-      <c r="AM112" s="23"/>
-      <c r="AN112" s="23"/>
-      <c r="AO112" s="23"/>
-      <c r="AP112" s="23"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
+      <c r="AL112" s="2"/>
+      <c r="AM112" s="2"/>
+      <c r="AN112" s="2"/>
+      <c r="AO112" s="2"/>
+      <c r="AP112" s="2"/>
       <c r="AQ112" s="5"/>
       <c r="AR112" s="5"/>
       <c r="AS112" s="5"/>
@@ -4973,23 +4790,19 @@
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
-      <c r="B113" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
@@ -5031,20 +4844,16 @@
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -5062,7 +4871,7 @@
       <c r="Z114" s="4"/>
       <c r="AC114" s="11"/>
       <c r="AD114" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
@@ -5091,7 +4900,9 @@
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
-      <c r="B115" s="5"/>
+      <c r="B115" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -5122,14 +4933,14 @@
       <c r="AF115" s="2"/>
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
-      <c r="AI115" s="5"/>
-      <c r="AJ115" s="5"/>
-      <c r="AK115" s="5"/>
-      <c r="AL115" s="5"/>
-      <c r="AM115" s="5"/>
-      <c r="AN115" s="5"/>
-      <c r="AO115" s="5"/>
-      <c r="AP115" s="5"/>
+      <c r="AI115" s="2"/>
+      <c r="AJ115" s="2"/>
+      <c r="AK115" s="2"/>
+      <c r="AL115" s="2"/>
+      <c r="AM115" s="2"/>
+      <c r="AN115" s="2"/>
+      <c r="AO115" s="2"/>
+      <c r="AP115" s="2"/>
       <c r="AQ115" s="5"/>
       <c r="AR115" s="5"/>
       <c r="AS115" s="5"/>
@@ -5145,13 +4956,11 @@
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
-      <c r="B116" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -5173,19 +4982,19 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="4"/>
       <c r="AC116" s="11"/>
-      <c r="AD116" s="5"/>
-      <c r="AE116" s="5"/>
-      <c r="AF116" s="5"/>
-      <c r="AG116" s="5"/>
-      <c r="AH116" s="5"/>
-      <c r="AI116" s="5"/>
-      <c r="AJ116" s="5"/>
-      <c r="AK116" s="5"/>
-      <c r="AL116" s="5"/>
-      <c r="AM116" s="5"/>
-      <c r="AN116" s="5"/>
-      <c r="AO116" s="5"/>
-      <c r="AP116" s="5"/>
+      <c r="AD116" s="23"/>
+      <c r="AE116" s="23"/>
+      <c r="AF116" s="23"/>
+      <c r="AG116" s="23"/>
+      <c r="AH116" s="23"/>
+      <c r="AI116" s="23"/>
+      <c r="AJ116" s="23"/>
+      <c r="AK116" s="23"/>
+      <c r="AL116" s="23"/>
+      <c r="AM116" s="23"/>
+      <c r="AN116" s="23"/>
+      <c r="AO116" s="23"/>
+      <c r="AP116" s="23"/>
       <c r="AQ116" s="5"/>
       <c r="AR116" s="5"/>
       <c r="AS116" s="5"/>
@@ -5201,12 +5010,12 @@
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
@@ -5227,23 +5036,19 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="4"/>
       <c r="AC117" s="11"/>
-      <c r="AD117" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE117" s="5"/>
-      <c r="AF117" s="5"/>
-      <c r="AG117" s="5"/>
-      <c r="AH117" s="5"/>
-      <c r="AI117" s="5"/>
-      <c r="AJ117" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK117" s="5"/>
-      <c r="AL117" s="5"/>
-      <c r="AM117" s="5"/>
-      <c r="AN117" s="5"/>
-      <c r="AO117" s="5"/>
-      <c r="AP117" s="5"/>
+      <c r="AD117" s="23"/>
+      <c r="AE117" s="23"/>
+      <c r="AF117" s="23"/>
+      <c r="AG117" s="23"/>
+      <c r="AH117" s="23"/>
+      <c r="AI117" s="23"/>
+      <c r="AJ117" s="23"/>
+      <c r="AK117" s="23"/>
+      <c r="AL117" s="23"/>
+      <c r="AM117" s="23"/>
+      <c r="AN117" s="23"/>
+      <c r="AO117" s="23"/>
+      <c r="AP117" s="23"/>
       <c r="AQ117" s="5"/>
       <c r="AR117" s="5"/>
       <c r="AS117" s="5"/>
@@ -5259,13 +5064,17 @@
     </row>
     <row r="118" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
-      <c r="B118" s="5"/>
+      <c r="B118" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="H118" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -5285,20 +5094,16 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="4"/>
       <c r="AC118" s="11"/>
-      <c r="AD118" s="22"/>
-      <c r="AE118" s="23"/>
-      <c r="AF118" s="23"/>
-      <c r="AG118" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+      <c r="AG118" s="5"/>
       <c r="AH118" s="5"/>
       <c r="AI118" s="5"/>
-      <c r="AJ118" s="22"/>
-      <c r="AK118" s="23"/>
-      <c r="AL118" s="23"/>
-      <c r="AM118" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="AJ118" s="5"/>
+      <c r="AK118" s="5"/>
+      <c r="AL118" s="5"/>
+      <c r="AM118" s="5"/>
       <c r="AN118" s="5"/>
       <c r="AO118" s="5"/>
       <c r="AP118" s="5"/>
@@ -5317,18 +5122,20 @@
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="5" t="s">
-        <v>40</v>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -5345,7 +5152,9 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="4"/>
       <c r="AC119" s="11"/>
-      <c r="AD119" s="5"/>
+      <c r="AD119" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
       <c r="AG119" s="5"/>
@@ -5399,13 +5208,11 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="4"/>
       <c r="AC120" s="11"/>
-      <c r="AD120" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE120" s="5"/>
-      <c r="AF120" s="5"/>
-      <c r="AG120" s="5"/>
-      <c r="AH120" s="5"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="2"/>
+      <c r="AG120" s="2"/>
+      <c r="AH120" s="2"/>
       <c r="AI120" s="5"/>
       <c r="AJ120" s="5"/>
       <c r="AK120" s="5"/>
@@ -5429,15 +5236,15 @@
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
-      <c r="B121" s="5"/>
+      <c r="B121" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="33"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="24"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -5457,12 +5264,12 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="4"/>
       <c r="AC121" s="11"/>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="2"/>
-      <c r="AF121" s="2"/>
-      <c r="AG121" s="2"/>
-      <c r="AH121" s="2"/>
-      <c r="AI121" s="2"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
       <c r="AJ121" s="5"/>
       <c r="AK121" s="5"/>
       <c r="AL121" s="5"/>
@@ -5485,12 +5292,12 @@
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -5511,13 +5318,17 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="4"/>
       <c r="AC122" s="11"/>
-      <c r="AD122" s="5"/>
+      <c r="AD122" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
       <c r="AG122" s="5"/>
       <c r="AH122" s="5"/>
       <c r="AI122" s="5"/>
-      <c r="AJ122" s="5"/>
+      <c r="AJ122" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="AK122" s="5"/>
       <c r="AL122" s="5"/>
       <c r="AM122" s="5"/>
@@ -5565,16 +5376,20 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="4"/>
       <c r="AC123" s="11"/>
-      <c r="AD123" s="5"/>
-      <c r="AE123" s="5"/>
-      <c r="AF123" s="5"/>
-      <c r="AG123" s="5"/>
+      <c r="AD123" s="22"/>
+      <c r="AE123" s="23"/>
+      <c r="AF123" s="23"/>
+      <c r="AG123" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="AH123" s="5"/>
       <c r="AI123" s="5"/>
-      <c r="AJ123" s="5"/>
-      <c r="AK123" s="5"/>
-      <c r="AL123" s="5"/>
-      <c r="AM123" s="5"/>
+      <c r="AJ123" s="22"/>
+      <c r="AK123" s="23"/>
+      <c r="AL123" s="23"/>
+      <c r="AM123" s="24" t="s">
+        <v>8</v>
+      </c>
       <c r="AN123" s="5"/>
       <c r="AO123" s="5"/>
       <c r="AP123" s="5"/>
@@ -5592,43 +5407,43 @@
       <c r="BB123" s="4"/>
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="1"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+      <c r="W124" s="5"/>
+      <c r="X124" s="5"/>
+      <c r="Y124" s="5"/>
+      <c r="Z124" s="4"/>
       <c r="AC124" s="11"/>
-      <c r="AD124" s="28"/>
-      <c r="AE124" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF124" s="2"/>
-      <c r="AG124" s="2"/>
-      <c r="AH124" s="2"/>
-      <c r="AI124" s="2"/>
-      <c r="AJ124" s="2"/>
-      <c r="AK124" s="2"/>
+      <c r="AD124" s="5"/>
+      <c r="AE124" s="5"/>
+      <c r="AF124" s="5"/>
+      <c r="AG124" s="5"/>
+      <c r="AH124" s="5"/>
+      <c r="AI124" s="5"/>
+      <c r="AJ124" s="5"/>
+      <c r="AK124" s="5"/>
       <c r="AL124" s="5"/>
       <c r="AM124" s="5"/>
       <c r="AN124" s="5"/>
@@ -5648,8 +5463,36 @@
       <c r="BB124" s="4"/>
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="5"/>
+      <c r="X125" s="5"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="4"/>
       <c r="AC125" s="11"/>
-      <c r="AD125" s="5"/>
+      <c r="AD125" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
       <c r="AG125" s="5"/>
@@ -5676,17 +5519,43 @@
       <c r="BB125" s="4"/>
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="33"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="4"/>
       <c r="AC126" s="11"/>
-      <c r="AD126" s="28"/>
-      <c r="AE126" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
       <c r="AG126" s="2"/>
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
-      <c r="AJ126" s="2"/>
-      <c r="AK126" s="2"/>
+      <c r="AJ126" s="5"/>
+      <c r="AK126" s="5"/>
       <c r="AL126" s="5"/>
       <c r="AM126" s="5"/>
       <c r="AN126" s="5"/>
@@ -5706,6 +5575,32 @@
       <c r="BB126" s="4"/>
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="4"/>
       <c r="AC127" s="11"/>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
@@ -5734,20 +5629,41 @@
       <c r="BB127" s="4"/>
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="F128" t="s">
-        <v>47</v>
-      </c>
+      <c r="A128" s="11"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
+      <c r="Z128" s="4"/>
       <c r="AC128" s="11"/>
-      <c r="AD128" s="28"/>
-      <c r="AE128" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF128" s="2"/>
-      <c r="AG128" s="2"/>
-      <c r="AH128" s="2"/>
-      <c r="AI128" s="2"/>
-      <c r="AJ128" s="2"/>
-      <c r="AK128" s="2"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="5"/>
+      <c r="AF128" s="5"/>
+      <c r="AG128" s="5"/>
+      <c r="AH128" s="5"/>
+      <c r="AI128" s="5"/>
+      <c r="AJ128" s="5"/>
+      <c r="AK128" s="5"/>
       <c r="AL128" s="5"/>
       <c r="AM128" s="5"/>
       <c r="AN128" s="5"/>
@@ -5766,16 +5682,44 @@
       <c r="BA128" s="5"/>
       <c r="BB128" s="4"/>
     </row>
-    <row r="129" spans="29:54" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="1"/>
       <c r="AC129" s="11"/>
-      <c r="AD129" s="5"/>
-      <c r="AE129" s="5"/>
-      <c r="AF129" s="5"/>
-      <c r="AG129" s="5"/>
-      <c r="AH129" s="5"/>
-      <c r="AI129" s="5"/>
-      <c r="AJ129" s="5"/>
-      <c r="AK129" s="5"/>
+      <c r="AD129" s="28"/>
+      <c r="AE129" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF129" s="2"/>
+      <c r="AG129" s="2"/>
+      <c r="AH129" s="2"/>
+      <c r="AI129" s="2"/>
+      <c r="AJ129" s="2"/>
+      <c r="AK129" s="2"/>
       <c r="AL129" s="5"/>
       <c r="AM129" s="5"/>
       <c r="AN129" s="5"/>
@@ -5794,18 +5738,16 @@
       <c r="BA129" s="5"/>
       <c r="BB129" s="4"/>
     </row>
-    <row r="130" spans="29:54" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AC130" s="11"/>
-      <c r="AD130" s="28"/>
-      <c r="AE130" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF130" s="2"/>
-      <c r="AG130" s="2"/>
-      <c r="AH130" s="2"/>
-      <c r="AI130" s="2"/>
-      <c r="AJ130" s="2"/>
-      <c r="AK130" s="2"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="5"/>
+      <c r="AF130" s="5"/>
+      <c r="AG130" s="5"/>
+      <c r="AH130" s="5"/>
+      <c r="AI130" s="5"/>
+      <c r="AJ130" s="5"/>
+      <c r="AK130" s="5"/>
       <c r="AL130" s="5"/>
       <c r="AM130" s="5"/>
       <c r="AN130" s="5"/>
@@ -5824,16 +5766,18 @@
       <c r="BA130" s="5"/>
       <c r="BB130" s="4"/>
     </row>
-    <row r="131" spans="29:54" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AC131" s="11"/>
-      <c r="AD131" s="5"/>
-      <c r="AE131" s="5"/>
-      <c r="AF131" s="5"/>
-      <c r="AG131" s="5"/>
-      <c r="AH131" s="5"/>
-      <c r="AI131" s="5"/>
-      <c r="AJ131" s="5"/>
-      <c r="AK131" s="5"/>
+      <c r="AD131" s="28"/>
+      <c r="AE131" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF131" s="2"/>
+      <c r="AG131" s="2"/>
+      <c r="AH131" s="2"/>
+      <c r="AI131" s="2"/>
+      <c r="AJ131" s="2"/>
+      <c r="AK131" s="2"/>
       <c r="AL131" s="5"/>
       <c r="AM131" s="5"/>
       <c r="AN131" s="5"/>
@@ -5852,7 +5796,7 @@
       <c r="BA131" s="5"/>
       <c r="BB131" s="4"/>
     </row>
-    <row r="132" spans="29:54" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AC132" s="11"/>
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
@@ -5880,19 +5824,22 @@
       <c r="BA132" s="5"/>
       <c r="BB132" s="4"/>
     </row>
-    <row r="133" spans="29:54" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>46</v>
+      </c>
       <c r="AC133" s="11"/>
-      <c r="AD133" s="5"/>
-      <c r="AE133" s="5"/>
-      <c r="AF133" s="5"/>
-      <c r="AG133" s="5"/>
-      <c r="AH133" s="5"/>
-      <c r="AI133" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ133" s="33"/>
-      <c r="AK133" s="23"/>
-      <c r="AL133" s="24"/>
+      <c r="AD133" s="28"/>
+      <c r="AE133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF133" s="2"/>
+      <c r="AG133" s="2"/>
+      <c r="AH133" s="2"/>
+      <c r="AI133" s="2"/>
+      <c r="AJ133" s="2"/>
+      <c r="AK133" s="2"/>
+      <c r="AL133" s="5"/>
       <c r="AM133" s="5"/>
       <c r="AN133" s="5"/>
       <c r="AO133" s="5"/>
@@ -5910,33 +5857,177 @@
       <c r="BA133" s="5"/>
       <c r="BB133" s="4"/>
     </row>
-    <row r="134" spans="29:54" x14ac:dyDescent="0.25">
-      <c r="AC134" s="3"/>
-      <c r="AD134" s="2"/>
-      <c r="AE134" s="2"/>
-      <c r="AF134" s="2"/>
-      <c r="AG134" s="2"/>
-      <c r="AH134" s="2"/>
-      <c r="AI134" s="2"/>
-      <c r="AJ134" s="2"/>
-      <c r="AK134" s="2"/>
-      <c r="AL134" s="2"/>
-      <c r="AM134" s="2"/>
-      <c r="AN134" s="2"/>
-      <c r="AO134" s="2"/>
-      <c r="AP134" s="2"/>
-      <c r="AQ134" s="2"/>
-      <c r="AR134" s="2"/>
-      <c r="AS134" s="2"/>
-      <c r="AT134" s="2"/>
-      <c r="AU134" s="2"/>
-      <c r="AV134" s="2"/>
-      <c r="AW134" s="2"/>
-      <c r="AX134" s="2"/>
-      <c r="AY134" s="2"/>
-      <c r="AZ134" s="2"/>
-      <c r="BA134" s="2"/>
-      <c r="BB134" s="1"/>
+    <row r="134" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AC134" s="11"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="5"/>
+      <c r="AG134" s="5"/>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+      <c r="AJ134" s="5"/>
+      <c r="AK134" s="5"/>
+      <c r="AL134" s="5"/>
+      <c r="AM134" s="5"/>
+      <c r="AN134" s="5"/>
+      <c r="AO134" s="5"/>
+      <c r="AP134" s="5"/>
+      <c r="AQ134" s="5"/>
+      <c r="AR134" s="5"/>
+      <c r="AS134" s="5"/>
+      <c r="AT134" s="5"/>
+      <c r="AU134" s="5"/>
+      <c r="AV134" s="5"/>
+      <c r="AW134" s="5"/>
+      <c r="AX134" s="5"/>
+      <c r="AY134" s="5"/>
+      <c r="AZ134" s="5"/>
+      <c r="BA134" s="5"/>
+      <c r="BB134" s="4"/>
+    </row>
+    <row r="135" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AC135" s="11"/>
+      <c r="AD135" s="28"/>
+      <c r="AE135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF135" s="2"/>
+      <c r="AG135" s="2"/>
+      <c r="AH135" s="2"/>
+      <c r="AI135" s="2"/>
+      <c r="AJ135" s="2"/>
+      <c r="AK135" s="2"/>
+      <c r="AL135" s="5"/>
+      <c r="AM135" s="5"/>
+      <c r="AN135" s="5"/>
+      <c r="AO135" s="5"/>
+      <c r="AP135" s="5"/>
+      <c r="AQ135" s="5"/>
+      <c r="AR135" s="5"/>
+      <c r="AS135" s="5"/>
+      <c r="AT135" s="5"/>
+      <c r="AU135" s="5"/>
+      <c r="AV135" s="5"/>
+      <c r="AW135" s="5"/>
+      <c r="AX135" s="5"/>
+      <c r="AY135" s="5"/>
+      <c r="AZ135" s="5"/>
+      <c r="BA135" s="5"/>
+      <c r="BB135" s="4"/>
+    </row>
+    <row r="136" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AC136" s="11"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="5"/>
+      <c r="AG136" s="5"/>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+      <c r="AJ136" s="5"/>
+      <c r="AK136" s="5"/>
+      <c r="AL136" s="5"/>
+      <c r="AM136" s="5"/>
+      <c r="AN136" s="5"/>
+      <c r="AO136" s="5"/>
+      <c r="AP136" s="5"/>
+      <c r="AQ136" s="5"/>
+      <c r="AR136" s="5"/>
+      <c r="AS136" s="5"/>
+      <c r="AT136" s="5"/>
+      <c r="AU136" s="5"/>
+      <c r="AV136" s="5"/>
+      <c r="AW136" s="5"/>
+      <c r="AX136" s="5"/>
+      <c r="AY136" s="5"/>
+      <c r="AZ136" s="5"/>
+      <c r="BA136" s="5"/>
+      <c r="BB136" s="4"/>
+    </row>
+    <row r="137" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AC137" s="11"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="5"/>
+      <c r="AF137" s="5"/>
+      <c r="AG137" s="5"/>
+      <c r="AH137" s="5"/>
+      <c r="AI137" s="5"/>
+      <c r="AJ137" s="5"/>
+      <c r="AK137" s="5"/>
+      <c r="AL137" s="5"/>
+      <c r="AM137" s="5"/>
+      <c r="AN137" s="5"/>
+      <c r="AO137" s="5"/>
+      <c r="AP137" s="5"/>
+      <c r="AQ137" s="5"/>
+      <c r="AR137" s="5"/>
+      <c r="AS137" s="5"/>
+      <c r="AT137" s="5"/>
+      <c r="AU137" s="5"/>
+      <c r="AV137" s="5"/>
+      <c r="AW137" s="5"/>
+      <c r="AX137" s="5"/>
+      <c r="AY137" s="5"/>
+      <c r="AZ137" s="5"/>
+      <c r="BA137" s="5"/>
+      <c r="BB137" s="4"/>
+    </row>
+    <row r="138" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AC138" s="11"/>
+      <c r="AD138" s="5"/>
+      <c r="AE138" s="5"/>
+      <c r="AF138" s="5"/>
+      <c r="AG138" s="5"/>
+      <c r="AH138" s="5"/>
+      <c r="AI138" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ138" s="33"/>
+      <c r="AK138" s="23"/>
+      <c r="AL138" s="23"/>
+      <c r="AM138" s="24"/>
+      <c r="AN138" s="5"/>
+      <c r="AO138" s="5"/>
+      <c r="AP138" s="5"/>
+      <c r="AQ138" s="5"/>
+      <c r="AR138" s="5"/>
+      <c r="AS138" s="5"/>
+      <c r="AT138" s="5"/>
+      <c r="AU138" s="5"/>
+      <c r="AV138" s="5"/>
+      <c r="AW138" s="5"/>
+      <c r="AX138" s="5"/>
+      <c r="AY138" s="5"/>
+      <c r="AZ138" s="5"/>
+      <c r="BA138" s="5"/>
+      <c r="BB138" s="4"/>
+    </row>
+    <row r="139" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AC139" s="3"/>
+      <c r="AD139" s="2"/>
+      <c r="AE139" s="2"/>
+      <c r="AF139" s="2"/>
+      <c r="AG139" s="2"/>
+      <c r="AH139" s="2"/>
+      <c r="AI139" s="2"/>
+      <c r="AJ139" s="2"/>
+      <c r="AK139" s="2"/>
+      <c r="AL139" s="2"/>
+      <c r="AM139" s="2"/>
+      <c r="AN139" s="2"/>
+      <c r="AO139" s="2"/>
+      <c r="AP139" s="2"/>
+      <c r="AQ139" s="2"/>
+      <c r="AR139" s="2"/>
+      <c r="AS139" s="2"/>
+      <c r="AT139" s="2"/>
+      <c r="AU139" s="2"/>
+      <c r="AV139" s="2"/>
+      <c r="AW139" s="2"/>
+      <c r="AX139" s="2"/>
+      <c r="AY139" s="2"/>
+      <c r="AZ139" s="2"/>
+      <c r="BA139" s="2"/>
+      <c r="BB139" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5947,10 +6038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK158"/>
+  <dimension ref="A1:AK156"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:AK47"/>
+    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153:T155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6091,12 +6182,12 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="1"/>
@@ -6201,7 +6292,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
@@ -6232,7 +6323,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -6328,7 +6419,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -6418,7 +6509,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6498,7 +6589,7 @@
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6512,7 +6603,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P19" s="5"/>
       <c r="X19" s="5"/>
@@ -6569,7 +6660,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6580,7 +6671,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -6665,7 +6756,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -6812,7 +6903,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -6901,7 +6992,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="5"/>
       <c r="I32" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -6996,7 +7087,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -7086,7 +7177,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="28"/>
       <c r="J38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -7203,7 +7294,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="5"/>
       <c r="I42" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
@@ -7376,7 +7467,7 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -7442,7 +7533,7 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -7456,7 +7547,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -7470,7 +7561,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
@@ -7621,7 +7712,7 @@
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -7633,7 +7724,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="11"/>
       <c r="L58" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -7645,7 +7736,7 @@
       <c r="T58" s="5"/>
       <c r="U58" s="11"/>
       <c r="V58" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
@@ -7659,7 +7750,7 @@
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -7671,7 +7762,7 @@
       <c r="J59" s="5"/>
       <c r="K59" s="3"/>
       <c r="L59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7683,7 +7774,7 @@
       <c r="T59" s="5"/>
       <c r="U59" s="3"/>
       <c r="V59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
@@ -7728,7 +7819,7 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -7740,7 +7831,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -7752,7 +7843,7 @@
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
@@ -7798,7 +7889,7 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -7810,7 +7901,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -7822,7 +7913,7 @@
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
@@ -7900,7 +7991,7 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7914,7 +8005,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -7928,7 +8019,7 @@
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
@@ -8079,7 +8170,7 @@
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -8091,7 +8182,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="11"/>
       <c r="L71" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -8103,7 +8194,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="11"/>
       <c r="V71" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
@@ -8117,7 +8208,7 @@
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -8129,7 +8220,7 @@
       <c r="J72" s="5"/>
       <c r="K72" s="3"/>
       <c r="L72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8141,7 +8232,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="3"/>
       <c r="V72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
@@ -8186,7 +8277,7 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -8198,7 +8289,7 @@
       <c r="I74" s="30"/>
       <c r="J74" s="5"/>
       <c r="K74" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -8210,7 +8301,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
@@ -8256,7 +8347,7 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -8268,7 +8359,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -8280,7 +8371,7 @@
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
@@ -8358,7 +8449,7 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8372,7 +8463,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
@@ -8386,7 +8477,7 @@
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
@@ -8537,7 +8628,7 @@
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -8549,7 +8640,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="11"/>
       <c r="L84" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -8561,7 +8652,7 @@
       <c r="T84" s="5"/>
       <c r="U84" s="11"/>
       <c r="V84" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
@@ -8575,7 +8666,7 @@
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -8587,7 +8678,7 @@
       <c r="J85" s="5"/>
       <c r="K85" s="3"/>
       <c r="L85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -8599,7 +8690,7 @@
       <c r="T85" s="5"/>
       <c r="U85" s="3"/>
       <c r="V85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
@@ -8644,7 +8735,7 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -8656,7 +8747,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -8668,7 +8759,7 @@
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
@@ -8714,7 +8805,7 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -8726,7 +8817,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -8738,7 +8829,7 @@
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
       <c r="U89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
@@ -8894,7 +8985,7 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -8993,15 +9084,15 @@
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
@@ -9223,7 +9314,7 @@
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C107" s="23"/>
       <c r="D107" s="24"/>
@@ -9320,7 +9411,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -9654,7 +9745,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -9666,7 +9757,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -9678,7 +9769,7 @@
       <c r="S122" s="5"/>
       <c r="T122" s="5"/>
       <c r="U122" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
@@ -10088,7 +10179,7 @@
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -10100,7 +10191,7 @@
       <c r="I135" s="30"/>
       <c r="J135" s="5"/>
       <c r="K135" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
@@ -10112,7 +10203,7 @@
       <c r="S135" s="5"/>
       <c r="T135" s="5"/>
       <c r="U135" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
@@ -10522,7 +10613,7 @@
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -10534,7 +10625,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
@@ -10546,7 +10637,7 @@
       <c r="S148" s="5"/>
       <c r="T148" s="5"/>
       <c r="U148" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V148" s="5"/>
       <c r="W148" s="5"/>
@@ -10697,17 +10788,17 @@
       <c r="H153" s="24"/>
       <c r="I153" s="5"/>
       <c r="J153" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K153" s="24"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
+      <c r="M153" s="22"/>
+      <c r="N153" s="23"/>
+      <c r="O153" s="23"/>
+      <c r="P153" s="23"/>
+      <c r="Q153" s="23"/>
+      <c r="R153" s="23"/>
+      <c r="S153" s="24"/>
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5"/>
@@ -10723,17 +10814,15 @@
     <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="5"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="24"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
       <c r="I154" s="5"/>
-      <c r="J154" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K154" s="24"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
@@ -10757,17 +10846,17 @@
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="5"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="24"/>
+      <c r="C155" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" s="24"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
       <c r="I155" s="5"/>
-      <c r="J155" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K155" s="24"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
@@ -10789,102 +10878,36 @@
       <c r="AD155" s="4"/>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5"/>
-      <c r="V156" s="5"/>
-      <c r="W156" s="5"/>
-      <c r="X156" s="5"/>
-      <c r="Y156" s="5"/>
-      <c r="Z156" s="5"/>
-      <c r="AA156" s="5"/>
-      <c r="AB156" s="5"/>
-      <c r="AC156" s="5"/>
-      <c r="AD156" s="4"/>
-    </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D157" s="24"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="5"/>
-      <c r="U157" s="5"/>
-      <c r="V157" s="5"/>
-      <c r="W157" s="5"/>
-      <c r="X157" s="5"/>
-      <c r="Y157" s="5"/>
-      <c r="Z157" s="5"/>
-      <c r="AA157" s="5"/>
-      <c r="AB157" s="5"/>
-      <c r="AC157" s="5"/>
-      <c r="AD157" s="4"/>
-    </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
-      <c r="AA158" s="2"/>
-      <c r="AB158" s="2"/>
-      <c r="AC158" s="2"/>
-      <c r="AD158" s="1"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2"/>
+      <c r="V156" s="2"/>
+      <c r="W156" s="2"/>
+      <c r="X156" s="2"/>
+      <c r="Y156" s="2"/>
+      <c r="Z156" s="2"/>
+      <c r="AA156" s="2"/>
+      <c r="AB156" s="2"/>
+      <c r="AC156" s="2"/>
+      <c r="AD156" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10896,8 +10919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="AN111" sqref="AN111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="Y118" sqref="Y118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11038,12 +11061,12 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="1"/>
@@ -11143,10 +11166,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -11206,7 +11229,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="9"/>
@@ -11259,7 +11282,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="11"/>
       <c r="I14" s="11"/>
@@ -11309,7 +11332,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
@@ -11408,7 +11431,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P20" s="5"/>
       <c r="X20" s="5"/>
@@ -11454,7 +11477,7 @@
     <row r="22" spans="7:33" x14ac:dyDescent="0.25">
       <c r="G22" s="11"/>
       <c r="H22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -11465,7 +11488,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -11574,7 +11597,7 @@
     <row r="26" spans="7:33" x14ac:dyDescent="0.25">
       <c r="G26" s="11"/>
       <c r="H26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -11663,7 +11686,7 @@
     <row r="29" spans="7:33" x14ac:dyDescent="0.25">
       <c r="G29" s="11"/>
       <c r="H29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -11810,7 +11833,7 @@
     <row r="34" spans="7:33" x14ac:dyDescent="0.25">
       <c r="G34" s="11"/>
       <c r="H34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -11899,7 +11922,7 @@
     <row r="37" spans="7:33" x14ac:dyDescent="0.25">
       <c r="G37" s="11"/>
       <c r="H37" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -11994,7 +12017,7 @@
     <row r="40" spans="7:33" x14ac:dyDescent="0.25">
       <c r="G40" s="11"/>
       <c r="H40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -12113,7 +12136,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="28"/>
       <c r="I44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -12173,7 +12196,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="28"/>
       <c r="I46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -12233,7 +12256,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="28"/>
       <c r="I48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -12293,7 +12316,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="28"/>
       <c r="I50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -12381,7 +12404,7 @@
     <row r="53" spans="1:62" x14ac:dyDescent="0.25">
       <c r="G53" s="11"/>
       <c r="H53" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I53" s="23"/>
       <c r="J53" s="24"/>
@@ -12584,7 +12607,7 @@
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -12617,7 +12640,7 @@
       <c r="AD63" s="23"/>
       <c r="AE63" s="24"/>
       <c r="AH63" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI63" s="8"/>
       <c r="AJ63" s="8"/>
@@ -12777,29 +12800,29 @@
     <row r="66" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="24"/>
       <c r="I66" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J66" s="23"/>
       <c r="K66" s="24"/>
       <c r="L66" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O66" s="23"/>
       <c r="P66" s="23"/>
@@ -13105,7 +13128,7 @@
     <row r="72" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -13144,7 +13167,7 @@
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
       <c r="AU72" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AZ72" s="5"/>
       <c r="BA72" s="5"/>
@@ -13282,7 +13305,7 @@
       <c r="AE75" s="5"/>
       <c r="AH75" s="11"/>
       <c r="AI75" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ75" s="5"/>
       <c r="AK75" s="5"/>
@@ -13376,7 +13399,7 @@
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -13471,10 +13494,10 @@
       <c r="AE78" s="7"/>
       <c r="AH78" s="11"/>
       <c r="AI78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP78" s="5"/>
       <c r="AQ78" s="5"/>
@@ -13653,7 +13676,7 @@
       <c r="AE81" s="4"/>
       <c r="AH81" s="11"/>
       <c r="AI81" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ81" s="5"/>
       <c r="AK81" s="5"/>
@@ -14110,7 +14133,7 @@
       <c r="AE89" s="4"/>
       <c r="AH89" s="11"/>
       <c r="AI89" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ89" s="23"/>
       <c r="AK89" s="24"/>
@@ -14606,7 +14629,7 @@
     </row>
     <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
@@ -14702,14 +14725,14 @@
       <c r="U106" s="7"/>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
-      <c r="X106" s="9"/>
-      <c r="Y106" s="8"/>
-      <c r="Z106" s="8"/>
-      <c r="AA106" s="8"/>
-      <c r="AB106" s="8"/>
-      <c r="AC106" s="8"/>
-      <c r="AD106" s="8"/>
-      <c r="AE106" s="7"/>
+      <c r="X106" s="5"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
       <c r="AH106" s="4"/>
@@ -14738,14 +14761,14 @@
       <c r="U107" s="4"/>
       <c r="V107" s="5"/>
       <c r="W107" s="5"/>
-      <c r="X107" s="11"/>
+      <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
-      <c r="AE107" s="4"/>
+      <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AG107" s="5"/>
       <c r="AH107" s="4"/>
@@ -14774,14 +14797,14 @@
       <c r="U108" s="4"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
-      <c r="X108" s="11"/>
+      <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
       <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
-      <c r="AE108" s="4"/>
+      <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
       <c r="AG108" s="5"/>
       <c r="AH108" s="4"/>
@@ -14811,14 +14834,14 @@
       <c r="U109" s="4"/>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
-      <c r="X109" s="11"/>
+      <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
-      <c r="AE109" s="4"/>
+      <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="5"/>
       <c r="AH109" s="4"/>
@@ -14847,14 +14870,14 @@
       <c r="U110" s="4"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
-      <c r="X110" s="11"/>
+      <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
-      <c r="AE110" s="4"/>
+      <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AG110" s="5"/>
       <c r="AH110" s="4"/>
@@ -14883,14 +14906,14 @@
       <c r="U111" s="4"/>
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
-      <c r="X111" s="11"/>
+      <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
-      <c r="AE111" s="4"/>
+      <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AG111" s="5"/>
       <c r="AH111" s="4"/>
@@ -14919,14 +14942,14 @@
       <c r="U112" s="4"/>
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
-      <c r="X112" s="11"/>
+      <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
-      <c r="AE112" s="4"/>
+      <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AG112" s="5"/>
       <c r="AH112" s="4"/>
@@ -14955,14 +14978,14 @@
       <c r="U113" s="4"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
-      <c r="X113" s="11"/>
+      <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
-      <c r="AE113" s="4"/>
+      <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AG113" s="5"/>
       <c r="AH113" s="4"/>
@@ -14991,14 +15014,14 @@
       <c r="U114" s="4"/>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
-      <c r="X114" s="11"/>
+      <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
-      <c r="AE114" s="4"/>
+      <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AG114" s="5"/>
       <c r="AH114" s="4"/>
@@ -15027,14 +15050,14 @@
       <c r="U115" s="4"/>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
-      <c r="X115" s="11"/>
+      <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
-      <c r="AE115" s="4"/>
+      <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
       <c r="AG115" s="5"/>
       <c r="AH115" s="4"/>
@@ -15063,14 +15086,14 @@
       <c r="U116" s="1"/>
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
-      <c r="X116" s="3"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
-      <c r="AA116" s="2"/>
-      <c r="AB116" s="2"/>
-      <c r="AC116" s="2"/>
-      <c r="AD116" s="2"/>
-      <c r="AE116" s="1"/>
+      <c r="X116" s="5"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
       <c r="AG116" s="5"/>
       <c r="AH116" s="4"/>
@@ -15149,23 +15172,25 @@
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="24"/>
       <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+      <c r="I119" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J119" s="24"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="23"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="24"/>
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
@@ -15221,8 +15246,10 @@
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="B121" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="24"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>

--- a/document/Main Page.xlsx
+++ b/document/Main Page.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="81">
   <si>
     <t>LOGO</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>Login With Facebok</t>
+  </si>
+  <si>
+    <t>nama user yg review</t>
+  </si>
+  <si>
+    <t>blablabla</t>
+  </si>
+  <si>
+    <t>Pagination</t>
   </si>
 </sst>
 </file>
@@ -865,6 +874,816 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="5-Point Star 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="15630525"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="5-Point Star 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="5-Point Star 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="5-Point Star 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="5-Point Star 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="15611475"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="5-Point Star 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="15630525"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="5-Point Star 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="5-Point Star 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="5-Point Star 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="5-Point Star 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="15611475"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="5-Point Star 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="15630525"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="5-Point Star 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="5-Point Star 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="5-Point Star 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="15621000"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="5-Point Star 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="15611475"/>
+          <a:ext cx="85725" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10919,8 +11738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="Y118" sqref="Y118"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="AD84" sqref="AD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13544,7 +14363,9 @@
       <c r="U79" s="5"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
+      <c r="X79" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
@@ -13582,34 +14403,36 @@
       <c r="BJ79" s="4"/>
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
+      <c r="A80" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="23"/>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="24"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="4"/>
@@ -13670,7 +14493,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
+      <c r="AB81" s="4"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="4"/>
@@ -13706,7 +14529,9 @@
       <c r="BJ81" s="4"/>
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="A82" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -13733,7 +14558,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
+      <c r="AB82" s="4"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="4"/>
@@ -13766,34 +14591,34 @@
       <c r="BJ82" s="4"/>
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="1"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="4"/>
@@ -13949,34 +14774,36 @@
       <c r="BJ85" s="4"/>
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
+      <c r="A86" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="23"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="23"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="24"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="4"/>
@@ -14037,7 +14864,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
+      <c r="AB87" s="4"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="4"/>
@@ -14055,7 +14882,9 @@
       <c r="BJ87" s="4"/>
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -14082,7 +14911,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
+      <c r="AB88" s="4"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="4"/>
@@ -14100,34 +14929,34 @@
       <c r="BJ88" s="4"/>
     </row>
     <row r="89" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="1"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="4"/>
@@ -14240,34 +15069,36 @@
       <c r="BJ91" s="4"/>
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="5"/>
+      <c r="A92" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="23"/>
+      <c r="U92" s="23"/>
+      <c r="V92" s="23"/>
+      <c r="W92" s="23"/>
+      <c r="X92" s="23"/>
+      <c r="Y92" s="23"/>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="24"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="4"/>
@@ -14329,7 +15160,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
+      <c r="AB93" s="4"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="4"/>
@@ -14364,7 +15195,9 @@
       <c r="BJ93" s="1"/>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+      <c r="A94" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -14391,40 +15224,40 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
+      <c r="AB94" s="4"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="4"/>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="1"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="4"/>
@@ -14486,7 +15319,9 @@
       <c r="U97" s="5"/>
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
-      <c r="X97" s="5"/>
+      <c r="X97" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>

--- a/document/Main Page.xlsx
+++ b/document/Main Page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="82">
   <si>
     <t>LOGO</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Pagination</t>
+  </si>
+  <si>
+    <t>Ask Itenary</t>
   </si>
 </sst>
 </file>
@@ -1976,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV127" sqref="AV127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU20" sqref="AU20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2348,9 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7"/>
@@ -2357,7 +2362,9 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
+      <c r="V12" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="W12" s="8"/>
       <c r="X12" s="7"/>
       <c r="Z12" s="9"/>
@@ -2367,7 +2374,9 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
+      <c r="AG12" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="7"/>
@@ -2825,7 +2834,9 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="7"/>
       <c r="N27" s="9"/>
@@ -2836,7 +2847,9 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
+      <c r="V27" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="W27" s="8"/>
       <c r="X27" s="7"/>
       <c r="Z27" s="9"/>
@@ -2846,7 +2859,9 @@
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
+      <c r="AG27" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="7"/>
@@ -6859,7 +6874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK156"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C153" sqref="C153:T155"/>
     </sheetView>
   </sheetViews>
@@ -11738,7 +11753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="AD84" sqref="AD84"/>
     </sheetView>
   </sheetViews>
